--- a/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.830344684381657</v>
+        <v>2.322222050131643</v>
       </c>
       <c r="C2">
-        <v>1.735674810291471</v>
+        <v>0.5150914134582365</v>
       </c>
       <c r="D2">
-        <v>0.0377709043536143</v>
+        <v>0.02872642939665582</v>
       </c>
       <c r="E2">
-        <v>1.490596152403953</v>
+        <v>0.05510319847336476</v>
       </c>
       <c r="F2">
-        <v>2.638946266305766</v>
+        <v>6.770268191507341</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.227746585242073</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2875844436326958</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6343233586569283</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.290864317304397</v>
+        <v>2.004973139199421</v>
       </c>
       <c r="C3">
-        <v>1.486446147959043</v>
+        <v>0.4407242685402082</v>
       </c>
       <c r="D3">
-        <v>0.03473756204498812</v>
+        <v>0.0241664795667802</v>
       </c>
       <c r="E3">
-        <v>1.265432022405562</v>
+        <v>0.04933068795838125</v>
       </c>
       <c r="F3">
-        <v>2.297758040415161</v>
+        <v>6.041675210152363</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.089896952267651</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2549397217820797</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.546342436545892</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.966128585842284</v>
+        <v>1.815800633382736</v>
       </c>
       <c r="C4">
-        <v>1.337123485181962</v>
+        <v>0.3964934490675489</v>
       </c>
       <c r="D4">
-        <v>0.03311810716898833</v>
+        <v>0.02149007722070095</v>
       </c>
       <c r="E4">
-        <v>1.13220829742113</v>
+        <v>0.04595748966907465</v>
       </c>
       <c r="F4">
-        <v>2.097034792614409</v>
+        <v>5.606642594673588</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.009767199303852</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2355215815992153</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4939127842740518</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.835141837716662</v>
+        <v>1.739935430428488</v>
       </c>
       <c r="C5">
-        <v>1.277040680578978</v>
+        <v>0.3787776276879811</v>
       </c>
       <c r="D5">
-        <v>0.03251073148072692</v>
+        <v>0.02042556383730343</v>
       </c>
       <c r="E5">
-        <v>1.078959463538041</v>
+        <v>0.04462148280039813</v>
       </c>
       <c r="F5">
-        <v>2.017132747988356</v>
+        <v>5.432031126333698</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9780970352116327</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2277457671196146</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4728929968019884</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.813465065147852</v>
+        <v>1.727406873836401</v>
       </c>
       <c r="C6">
-        <v>1.267105927816488</v>
+        <v>0.3758531809144756</v>
       </c>
       <c r="D6">
-        <v>0.03241282469299733</v>
+        <v>0.02025024836808598</v>
       </c>
       <c r="E6">
-        <v>1.070174481158233</v>
+        <v>0.04440185089866233</v>
       </c>
       <c r="F6">
-        <v>2.003971139113716</v>
+        <v>5.403186396717871</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9728935639845844</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2264623399268828</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4694220831412608</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.964356961297028</v>
+        <v>1.81477276689148</v>
       </c>
       <c r="C7">
-        <v>1.336310281782914</v>
+        <v>0.3962533412320681</v>
       </c>
       <c r="D7">
-        <v>0.03310971347723779</v>
+        <v>0.02147562104259748</v>
       </c>
       <c r="E7">
-        <v>1.131486222133901</v>
+        <v>0.04593932102722675</v>
       </c>
       <c r="F7">
-        <v>2.095949917841494</v>
+        <v>5.604277458709277</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.0093362885343</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2354161836232151</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4936279716849299</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.642793834933968</v>
+        <v>2.211547598857692</v>
       </c>
       <c r="C8">
-        <v>1.648865808425285</v>
+        <v>0.4891198526580638</v>
       </c>
       <c r="D8">
-        <v>0.03666901972493974</v>
+        <v>0.02712541430344118</v>
       </c>
       <c r="E8">
-        <v>1.411770582084785</v>
+        <v>0.05307447731840043</v>
       </c>
       <c r="F8">
-        <v>2.519285006902919</v>
+        <v>6.516215916042711</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.179182805063107</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2761858017206578</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6036225997303291</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.040383173937528</v>
+        <v>3.044050208375438</v>
       </c>
       <c r="C9">
-        <v>2.299998144014239</v>
+        <v>0.6852666327907002</v>
       </c>
       <c r="D9">
-        <v>0.04604197080041672</v>
+        <v>0.03943912129592064</v>
       </c>
       <c r="E9">
-        <v>2.013554167686536</v>
+        <v>0.06865634640235285</v>
       </c>
       <c r="F9">
-        <v>3.435539985157561</v>
+        <v>8.424680049608071</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.556066102051048</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3621463357031729</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8347794915467261</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.134723897660649</v>
+        <v>3.705080370222561</v>
       </c>
       <c r="C10">
-        <v>2.816847809736885</v>
+        <v>0.8423832714391892</v>
       </c>
       <c r="D10">
-        <v>0.05520182449783562</v>
+        <v>0.04966050592724258</v>
       </c>
       <c r="E10">
-        <v>2.509165620931697</v>
+        <v>0.0814571553040544</v>
       </c>
       <c r="F10">
-        <v>4.189381778562506</v>
+        <v>9.936674352197144</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.873353844465001</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.430683495966278</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.01871155413464</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.655070189299011</v>
+        <v>4.021039838676586</v>
       </c>
       <c r="C11">
-        <v>3.064844105288046</v>
+        <v>0.9179368754219297</v>
       </c>
       <c r="D11">
-        <v>0.06011199684782298</v>
+        <v>0.05468401732005645</v>
       </c>
       <c r="E11">
-        <v>2.752974153250634</v>
+        <v>0.08768177577855596</v>
       </c>
       <c r="F11">
-        <v>4.558146871179588</v>
+        <v>10.65848952518576</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.030500168985</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4635080615648945</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.106755409078261</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.856211459186738</v>
+        <v>4.143346861093448</v>
       </c>
       <c r="C12">
-        <v>3.16110619738248</v>
+        <v>0.9472648677192979</v>
       </c>
       <c r="D12">
-        <v>0.0621066002021422</v>
+        <v>0.05665243267977615</v>
       </c>
       <c r="E12">
-        <v>2.848711132823922</v>
+        <v>0.09010779842326144</v>
       </c>
       <c r="F12">
-        <v>4.70241759461814</v>
+        <v>10.93775413064623</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.092293360104605</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4762239223001501</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.140859788739775</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.812693763659354</v>
+        <v>4.116879108571936</v>
       </c>
       <c r="C13">
-        <v>3.140260455846942</v>
+        <v>0.9409142739590663</v>
       </c>
       <c r="D13">
-        <v>0.0616704717935761</v>
+        <v>0.05622533369724181</v>
       </c>
       <c r="E13">
-        <v>2.827925857080061</v>
+        <v>0.08958204459107222</v>
       </c>
       <c r="F13">
-        <v>4.671123410480931</v>
+        <v>10.87732706048081</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.078875140108437</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4734717307644871</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.133478365746242</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.671530371164408</v>
+        <v>4.03104579358984</v>
       </c>
       <c r="C14">
-        <v>3.072713184747784</v>
+        <v>0.9203344817773598</v>
       </c>
       <c r="D14">
-        <v>0.06027319223011318</v>
+        <v>0.05484455484728556</v>
       </c>
       <c r="E14">
-        <v>2.76077684745249</v>
+        <v>0.08787991331851686</v>
       </c>
       <c r="F14">
-        <v>4.569917299956529</v>
+        <v>10.68133928857225</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.035535180350436</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4645481568989993</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.109545010397596</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.585626559101001</v>
+        <v>3.978832254993904</v>
       </c>
       <c r="C15">
-        <v>3.031661810958042</v>
+        <v>0.9078265418555134</v>
       </c>
       <c r="D15">
-        <v>0.05943590832747248</v>
+        <v>0.05400780943774208</v>
       </c>
       <c r="E15">
-        <v>2.720117363316277</v>
+        <v>0.0868466506177441</v>
       </c>
       <c r="F15">
-        <v>4.508559323568591</v>
+        <v>10.56209752764289</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.009300917029549</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4591210668253609</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.094989126451807</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.101239883710946</v>
+        <v>3.684776461429124</v>
       </c>
       <c r="C16">
-        <v>2.800939633626399</v>
+        <v>0.8375383566061316</v>
       </c>
       <c r="D16">
-        <v>0.05489813717227321</v>
+        <v>0.04934073055778754</v>
       </c>
       <c r="E16">
-        <v>2.493662526455978</v>
+        <v>0.08105934494301792</v>
       </c>
       <c r="F16">
-        <v>4.16587489291345</v>
+        <v>9.890270648930453</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.863377140603617</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4285754552470564</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.01305663516878</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.810400236485634</v>
+        <v>3.508594054780019</v>
       </c>
       <c r="C17">
-        <v>2.663014552727304</v>
+        <v>0.7955489649844196</v>
       </c>
       <c r="D17">
-        <v>0.05232256176737593</v>
+        <v>0.0465814093923953</v>
       </c>
       <c r="E17">
-        <v>2.359923708516135</v>
+        <v>0.07761912055001474</v>
       </c>
       <c r="F17">
-        <v>3.962847607411334</v>
+        <v>9.487514995944139</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.777420850364521</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4102905522121318</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.964001802065809</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.64517518024121</v>
+        <v>3.408661672391474</v>
       </c>
       <c r="C18">
-        <v>2.584859705548922</v>
+        <v>0.7717726565641954</v>
       </c>
       <c r="D18">
-        <v>0.05090904374613103</v>
+        <v>0.04502863045743766</v>
       </c>
       <c r="E18">
-        <v>2.284671043557111</v>
+        <v>0.0756773994559623</v>
       </c>
       <c r="F18">
-        <v>3.848437912177928</v>
+        <v>9.25898844442105</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.729154855148622</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3999251190278699</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9361888092291224</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.589563503421687</v>
+        <v>3.375054479254516</v>
       </c>
       <c r="C19">
-        <v>2.558586583385193</v>
+        <v>0.7637832254802106</v>
       </c>
       <c r="D19">
-        <v>0.0504413688429608</v>
+        <v>0.04450844097812023</v>
       </c>
       <c r="E19">
-        <v>2.259458592101595</v>
+        <v>0.0750260163641876</v>
       </c>
       <c r="F19">
-        <v>3.810082928830496</v>
+        <v>9.18212193320872</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.713002645104382</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3964402442340855</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9268371550011096</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.84114204964186</v>
+        <v>3.527200665268595</v>
       </c>
       <c r="C20">
-        <v>2.677571985367138</v>
+        <v>0.7999791449227871</v>
       </c>
       <c r="D20">
-        <v>0.05258952966983088</v>
+        <v>0.04687151109903454</v>
       </c>
       <c r="E20">
-        <v>2.373982658503067</v>
+        <v>0.07798143451741169</v>
       </c>
       <c r="F20">
-        <v>3.984209422164696</v>
+        <v>9.530058394045227</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.786446699069757</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4122209994437469</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9691812653322103</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.712874327217833</v>
+        <v>4.056180742279025</v>
       </c>
       <c r="C21">
-        <v>3.092484997247539</v>
+        <v>0.9263586162186073</v>
       </c>
       <c r="D21">
-        <v>0.06067967029463972</v>
+        <v>0.05524821718836392</v>
       </c>
       <c r="E21">
-        <v>2.780400213021167</v>
+        <v>0.08837790047745742</v>
       </c>
       <c r="F21">
-        <v>4.599509952761565</v>
+        <v>10.73873544311016</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.048199047773537</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4671610273970686</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.116552864844721</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.3070604101448</v>
+        <v>4.417693438598292</v>
       </c>
       <c r="C22">
-        <v>3.377697984444183</v>
+        <v>1.013218694667444</v>
       </c>
       <c r="D22">
-        <v>0.06677498884434385</v>
+        <v>0.06111601083009788</v>
       </c>
       <c r="E22">
-        <v>3.066452346189934</v>
+        <v>0.09558110176714507</v>
       </c>
       <c r="F22">
-        <v>5.029228456396908</v>
+        <v>11.56387354450669</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.232887389769729</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5047643459320739</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.217406429189737</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.987348133882904</v>
+        <v>4.223122339751853</v>
       </c>
       <c r="C23">
-        <v>3.223987023061113</v>
+        <v>0.9664190332313467</v>
       </c>
       <c r="D23">
-        <v>0.06343620130352434</v>
+        <v>0.05794349393865872</v>
       </c>
       <c r="E23">
-        <v>2.91158971071421</v>
+        <v>0.09169492554690351</v>
       </c>
       <c r="F23">
-        <v>4.796987929030593</v>
+        <v>11.11986190841623</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.132890917865723</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4845205837618778</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.163111531098878</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.827237562449966</v>
+        <v>3.518784423106922</v>
       </c>
       <c r="C24">
-        <v>2.670987054670604</v>
+        <v>0.7979751364173353</v>
       </c>
       <c r="D24">
-        <v>0.05246862614557557</v>
+        <v>0.04674025238307422</v>
       </c>
       <c r="E24">
-        <v>2.367621567799461</v>
+        <v>0.07781752070860293</v>
       </c>
       <c r="F24">
-        <v>3.974544605516343</v>
+        <v>9.510815183329868</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.782362558287261</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4113477905578549</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9668384272862909</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.652672717718474</v>
+        <v>2.811492719181672</v>
       </c>
       <c r="C25">
-        <v>2.118375326892021</v>
+        <v>0.6302864654753648</v>
       </c>
       <c r="D25">
-        <v>0.0431767107967147</v>
+        <v>0.03593643598796348</v>
       </c>
       <c r="E25">
-        <v>1.843227968609767</v>
+        <v>0.06423503332444369</v>
       </c>
       <c r="F25">
-        <v>3.175869799742827</v>
+        <v>7.892091627955296</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.448165329253982</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3380872550359157</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7701534287121916</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.322222050131643</v>
+        <v>0.7012404040030731</v>
       </c>
       <c r="C2">
-        <v>0.5150914134582365</v>
+        <v>0.2812571906218011</v>
       </c>
       <c r="D2">
-        <v>0.02872642939665582</v>
+        <v>0.005318067889749756</v>
       </c>
       <c r="E2">
-        <v>0.05510319847336476</v>
+        <v>0.05063525556457549</v>
       </c>
       <c r="F2">
-        <v>6.770268191507341</v>
+        <v>3.185149749102095</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.859457500778774</v>
       </c>
       <c r="J2">
-        <v>0.2875844436326958</v>
+        <v>0.1393455062713684</v>
       </c>
       <c r="K2">
-        <v>0.6343233586569283</v>
+        <v>0.9718861408518933</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.284059888411754</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.004973139199421</v>
+        <v>0.6072609047793662</v>
       </c>
       <c r="C3">
-        <v>0.4407242685402082</v>
+        <v>0.2473488027455915</v>
       </c>
       <c r="D3">
-        <v>0.0241664795667802</v>
+        <v>0.004574489797679604</v>
       </c>
       <c r="E3">
-        <v>0.04933068795838125</v>
+        <v>0.04682377556947515</v>
       </c>
       <c r="F3">
-        <v>6.041675210152363</v>
+        <v>2.977889889380762</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.752044847904983</v>
       </c>
       <c r="J3">
-        <v>0.2549397217820797</v>
+        <v>0.1304632456868049</v>
       </c>
       <c r="K3">
-        <v>0.546342436545892</v>
+        <v>0.8446181224792895</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2501291641254184</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.815800633382736</v>
+        <v>0.5504434957829289</v>
       </c>
       <c r="C4">
-        <v>0.3964934490675489</v>
+        <v>0.2269648246976459</v>
       </c>
       <c r="D4">
-        <v>0.02149007722070095</v>
+        <v>0.004121616521572946</v>
       </c>
       <c r="E4">
-        <v>0.04595748966907465</v>
+        <v>0.04455820389540399</v>
       </c>
       <c r="F4">
-        <v>5.606642594673588</v>
+        <v>2.854125383176552</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.687903570680959</v>
       </c>
       <c r="J4">
-        <v>0.2355215815992153</v>
+        <v>0.1251798572733946</v>
       </c>
       <c r="K4">
-        <v>0.4939127842740518</v>
+        <v>0.7678106728541536</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2297159294520377</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.739935430428488</v>
+        <v>0.5274869827227349</v>
       </c>
       <c r="C5">
-        <v>0.3787776276879811</v>
+        <v>0.2187562218633161</v>
       </c>
       <c r="D5">
-        <v>0.02042556383730343</v>
+        <v>0.003937968175581119</v>
       </c>
       <c r="E5">
-        <v>0.04462148280039813</v>
+        <v>0.04365251767574385</v>
       </c>
       <c r="F5">
-        <v>5.432031126333698</v>
+        <v>2.8044972891188</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.66218316201622</v>
       </c>
       <c r="J5">
-        <v>0.2277457671196146</v>
+        <v>0.1230665009614569</v>
       </c>
       <c r="K5">
-        <v>0.4728929968019884</v>
+        <v>0.7368093490760259</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2214929265529122</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.727406873836401</v>
+        <v>0.5236862512169864</v>
       </c>
       <c r="C6">
-        <v>0.3758531809144756</v>
+        <v>0.2173987880206028</v>
       </c>
       <c r="D6">
-        <v>0.02025024836808598</v>
+        <v>0.003907527246237663</v>
       </c>
       <c r="E6">
-        <v>0.04440185089866233</v>
+        <v>0.04350315497079826</v>
       </c>
       <c r="F6">
-        <v>5.403186396717871</v>
+        <v>2.79630331803456</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.657936483743313</v>
       </c>
       <c r="J6">
-        <v>0.2264623399268828</v>
+        <v>0.1227178870077452</v>
       </c>
       <c r="K6">
-        <v>0.4694220831412608</v>
+        <v>0.7316785754890702</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2201329914127186</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.81477276689148</v>
+        <v>0.5501331312311493</v>
       </c>
       <c r="C7">
-        <v>0.3962533412320681</v>
+        <v>0.2268537383663158</v>
       </c>
       <c r="D7">
-        <v>0.02147562104259748</v>
+        <v>0.004119136158603709</v>
       </c>
       <c r="E7">
-        <v>0.04593932102722675</v>
+        <v>0.04454591998737634</v>
       </c>
       <c r="F7">
-        <v>5.604277458709277</v>
+        <v>2.853452905153759</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.687555052911861</v>
       </c>
       <c r="J7">
-        <v>0.2354161836232151</v>
+        <v>0.1251511992306575</v>
       </c>
       <c r="K7">
-        <v>0.4936279716849299</v>
+        <v>0.7673914178525365</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2296046571488439</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.211547598857692</v>
+        <v>0.6686361364585878</v>
       </c>
       <c r="C8">
-        <v>0.4891198526580638</v>
+        <v>0.2694678575999205</v>
       </c>
       <c r="D8">
-        <v>0.02712541430344118</v>
+        <v>0.005060900177104699</v>
       </c>
       <c r="E8">
-        <v>0.05307447731840043</v>
+        <v>0.04930478665903237</v>
       </c>
       <c r="F8">
-        <v>6.516215916042711</v>
+        <v>3.112916670497128</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.822022380289596</v>
       </c>
       <c r="J8">
-        <v>0.2761858017206578</v>
+        <v>0.1362455655965817</v>
       </c>
       <c r="K8">
-        <v>0.6036225997303291</v>
+        <v>0.9277034452959185</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2722669805243001</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.044050208375438</v>
+        <v>0.9093305377486445</v>
       </c>
       <c r="C9">
-        <v>0.6852666327907002</v>
+        <v>0.3570655735085211</v>
       </c>
       <c r="D9">
-        <v>0.03943912129592064</v>
+        <v>0.00693837987435586</v>
       </c>
       <c r="E9">
-        <v>0.06865634640235285</v>
+        <v>0.05929015475910049</v>
       </c>
       <c r="F9">
-        <v>8.424680049608071</v>
+        <v>3.652969985329406</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.101925357345223</v>
       </c>
       <c r="J9">
-        <v>0.3621463357031729</v>
+        <v>0.1595093059140709</v>
       </c>
       <c r="K9">
-        <v>0.8347794915467261</v>
+        <v>1.25452703124472</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3597642976853521</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.705080370222561</v>
+        <v>1.093197965822441</v>
       </c>
       <c r="C10">
-        <v>0.8423832714391892</v>
+        <v>0.424763483891752</v>
       </c>
       <c r="D10">
-        <v>0.04966050592724258</v>
+        <v>0.00833882323399493</v>
       </c>
       <c r="E10">
-        <v>0.0814571553040544</v>
+        <v>0.06711746565718713</v>
       </c>
       <c r="F10">
-        <v>9.936674352197144</v>
+        <v>4.07418668832787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.320277693849775</v>
       </c>
       <c r="J10">
-        <v>0.430683495966278</v>
+        <v>0.177759191705519</v>
       </c>
       <c r="K10">
-        <v>1.01871155413464</v>
+        <v>1.505087262687084</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4271572920433755</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.021039838676586</v>
+        <v>1.178861455095387</v>
       </c>
       <c r="C11">
-        <v>0.9179368754219297</v>
+        <v>0.4565080436945266</v>
       </c>
       <c r="D11">
-        <v>0.05468401732005645</v>
+        <v>0.008981075499537639</v>
       </c>
       <c r="E11">
-        <v>0.08768177577855596</v>
+        <v>0.07080806105759407</v>
       </c>
       <c r="F11">
-        <v>10.65848952518576</v>
+        <v>4.272459505857029</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.423074106214372</v>
       </c>
       <c r="J11">
-        <v>0.4635080615648945</v>
+        <v>0.1863725461670072</v>
       </c>
       <c r="K11">
-        <v>1.106755409078261</v>
+        <v>1.622055722938626</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4586836657273921</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.143346861093448</v>
+        <v>1.211636407247283</v>
       </c>
       <c r="C12">
-        <v>0.9472648677192979</v>
+        <v>0.4686860718946377</v>
       </c>
       <c r="D12">
-        <v>0.05665243267977615</v>
+        <v>0.009225073643300163</v>
       </c>
       <c r="E12">
-        <v>0.09010779842326144</v>
+        <v>0.07222642085584496</v>
       </c>
       <c r="F12">
-        <v>10.93775413064623</v>
+        <v>4.348622876694918</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.462564321821162</v>
       </c>
       <c r="J12">
-        <v>0.4762239223001501</v>
+        <v>0.189684520003091</v>
       </c>
       <c r="K12">
-        <v>1.140859788739775</v>
+        <v>1.666844934177448</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4707647835798312</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.116879108571936</v>
+        <v>1.204562013115492</v>
       </c>
       <c r="C13">
-        <v>0.9409142739590663</v>
+        <v>0.4660559764974153</v>
       </c>
       <c r="D13">
-        <v>0.05622533369724181</v>
+        <v>0.009172488335945417</v>
       </c>
       <c r="E13">
-        <v>0.08958204459107222</v>
+        <v>0.07191998977018343</v>
       </c>
       <c r="F13">
-        <v>10.87732706048081</v>
+        <v>4.332169500773091</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.454033230115115</v>
       </c>
       <c r="J13">
-        <v>0.4734717307644871</v>
+        <v>0.1889688968101098</v>
       </c>
       <c r="K13">
-        <v>1.133478365746242</v>
+        <v>1.65717559277337</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.468156244819113</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.03104579358984</v>
+        <v>1.181550857599689</v>
       </c>
       <c r="C14">
-        <v>0.9203344817773598</v>
+        <v>0.4575066631369964</v>
       </c>
       <c r="D14">
-        <v>0.05484455484728556</v>
+        <v>0.009001133246901105</v>
       </c>
       <c r="E14">
-        <v>0.08787991331851686</v>
+        <v>0.07092432027812023</v>
       </c>
       <c r="F14">
-        <v>10.68133928857225</v>
+        <v>4.278703073631732</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.426311301304736</v>
       </c>
       <c r="J14">
-        <v>0.4645481568989993</v>
+        <v>0.1866439828566939</v>
       </c>
       <c r="K14">
-        <v>1.109545010397596</v>
+        <v>1.625730216557599</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.4596746164418732</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.978832254993904</v>
+        <v>1.167501054985934</v>
       </c>
       <c r="C15">
-        <v>0.9078265418555134</v>
+        <v>0.4522910677413847</v>
       </c>
       <c r="D15">
-        <v>0.05400780943774208</v>
+        <v>0.008896277739527392</v>
       </c>
       <c r="E15">
-        <v>0.0868466506177441</v>
+        <v>0.07031722126249917</v>
       </c>
       <c r="F15">
-        <v>10.56209752764289</v>
+        <v>4.246098130694435</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.409406240531851</v>
       </c>
       <c r="J15">
-        <v>0.4591210668253609</v>
+        <v>0.1852266277294277</v>
       </c>
       <c r="K15">
-        <v>1.094989126451807</v>
+        <v>1.606535671866652</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.4544985277432332</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.684776461429124</v>
+        <v>1.087644098708182</v>
       </c>
       <c r="C16">
-        <v>0.8375383566061316</v>
+        <v>0.4227097021922361</v>
       </c>
       <c r="D16">
-        <v>0.04934073055778754</v>
+        <v>0.008296958697144419</v>
       </c>
       <c r="E16">
-        <v>0.08105934494301792</v>
+        <v>0.06687906783512787</v>
       </c>
       <c r="F16">
-        <v>9.890270648930453</v>
+        <v>4.061373413380466</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.313634864254922</v>
       </c>
       <c r="J16">
-        <v>0.4285754552470564</v>
+        <v>0.1772030122706951</v>
       </c>
       <c r="K16">
-        <v>1.01305663516878</v>
+        <v>1.497508710042126</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.4251159343883657</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.508594054780019</v>
+        <v>1.039202935073604</v>
       </c>
       <c r="C17">
-        <v>0.7955489649844196</v>
+        <v>0.404819409324773</v>
       </c>
       <c r="D17">
-        <v>0.0465814093923953</v>
+        <v>0.007930655232524231</v>
       </c>
       <c r="E17">
-        <v>0.07761912055001474</v>
+        <v>0.06480459320500032</v>
       </c>
       <c r="F17">
-        <v>9.487514995944139</v>
+        <v>3.949840693290867</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.255814265781154</v>
       </c>
       <c r="J17">
-        <v>0.4102905522121318</v>
+        <v>0.172364277464311</v>
       </c>
       <c r="K17">
-        <v>0.964001802065809</v>
+        <v>1.431434234150288</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.40732531065985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.408661672391474</v>
+        <v>1.011528121085576</v>
       </c>
       <c r="C18">
-        <v>0.7717726565641954</v>
+        <v>0.3946172924275686</v>
       </c>
       <c r="D18">
-        <v>0.04502863045743766</v>
+        <v>0.00772045215158812</v>
       </c>
       <c r="E18">
-        <v>0.0756773994559623</v>
+        <v>0.06362349831468705</v>
       </c>
       <c r="F18">
-        <v>9.25898844442105</v>
+        <v>3.886308656949126</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.222879436376331</v>
       </c>
       <c r="J18">
-        <v>0.3999251190278699</v>
+        <v>0.1696101126467653</v>
       </c>
       <c r="K18">
-        <v>0.9361888092291224</v>
+        <v>1.393706761703726</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3971732325236843</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.375054479254516</v>
+        <v>1.002188761903994</v>
       </c>
       <c r="C19">
-        <v>0.7637832254802106</v>
+        <v>0.3911775359269427</v>
       </c>
       <c r="D19">
-        <v>0.04450844097812023</v>
+        <v>0.00764936294511287</v>
       </c>
       <c r="E19">
-        <v>0.0750260163641876</v>
+        <v>0.06322561464726562</v>
       </c>
       <c r="F19">
-        <v>9.18212193320872</v>
+        <v>3.864900477730487</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.211781711957158</v>
       </c>
       <c r="J19">
-        <v>0.3964402442340855</v>
+        <v>0.1686824130245554</v>
       </c>
       <c r="K19">
-        <v>0.9268371550011096</v>
+        <v>1.380978528944723</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3937492474255109</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.527200665268595</v>
+        <v>1.044339885308062</v>
       </c>
       <c r="C20">
-        <v>0.7999791449227871</v>
+        <v>0.4067146211087334</v>
       </c>
       <c r="D20">
-        <v>0.04687151109903454</v>
+        <v>0.007969598344239159</v>
       </c>
       <c r="E20">
-        <v>0.07798143451741169</v>
+        <v>0.06502415877221424</v>
       </c>
       <c r="F20">
-        <v>9.530058394045227</v>
+        <v>3.961648657275276</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.261935587498371</v>
       </c>
       <c r="J20">
-        <v>0.4122209994437469</v>
+        <v>0.1728763350401081</v>
       </c>
       <c r="K20">
-        <v>0.9691812653322103</v>
+        <v>1.438438868291001</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.409210686285931</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.056180742279025</v>
+        <v>1.18830028518704</v>
       </c>
       <c r="C21">
-        <v>0.9263586162186073</v>
+        <v>0.460013365038094</v>
       </c>
       <c r="D21">
-        <v>0.05524821718836392</v>
+        <v>0.009051442541608168</v>
       </c>
       <c r="E21">
-        <v>0.08837790047745742</v>
+        <v>0.07121618963465437</v>
       </c>
       <c r="F21">
-        <v>10.73873544311016</v>
+        <v>4.294377045178976</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.434438060388004</v>
       </c>
       <c r="J21">
-        <v>0.4671610273970686</v>
+        <v>0.1873254549571186</v>
       </c>
       <c r="K21">
-        <v>1.116552864844721</v>
+        <v>1.634952466101339</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4621618501538265</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.417693438598292</v>
+        <v>1.284370224075474</v>
       </c>
       <c r="C22">
-        <v>1.013218694667444</v>
+        <v>0.4957739295118415</v>
       </c>
       <c r="D22">
-        <v>0.06111601083009788</v>
+        <v>0.009763124563011871</v>
       </c>
       <c r="E22">
-        <v>0.09558110176714507</v>
+        <v>0.0753855002618522</v>
       </c>
       <c r="F22">
-        <v>11.56387354450669</v>
+        <v>4.518207107266392</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.550497854791914</v>
       </c>
       <c r="J22">
-        <v>0.5047643459320739</v>
+        <v>0.1970648741682837</v>
       </c>
       <c r="K22">
-        <v>1.217406429189737</v>
+        <v>1.766311498212644</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4976103444449294</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.223122339751853</v>
+        <v>1.232898078273962</v>
       </c>
       <c r="C23">
-        <v>0.9664190332313467</v>
+        <v>0.4765955912780839</v>
       </c>
       <c r="D23">
-        <v>0.05794349393865872</v>
+        <v>0.009382846699672598</v>
       </c>
       <c r="E23">
-        <v>0.09169492554690351</v>
+        <v>0.07314829171005144</v>
       </c>
       <c r="F23">
-        <v>11.11986190841623</v>
+        <v>4.398117098780546</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.488227532712031</v>
       </c>
       <c r="J23">
-        <v>0.4845205837618778</v>
+        <v>0.1918376944156535</v>
       </c>
       <c r="K23">
-        <v>1.163111531098878</v>
+        <v>1.695911146368218</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4786073843550085</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.518784423106922</v>
+        <v>1.042016929461056</v>
       </c>
       <c r="C24">
-        <v>0.7979751364173353</v>
+        <v>0.4058575380865648</v>
       </c>
       <c r="D24">
-        <v>0.04674025238307422</v>
+        <v>0.007951990953181109</v>
       </c>
       <c r="E24">
-        <v>0.07781752070860293</v>
+        <v>0.06492485736742992</v>
       </c>
       <c r="F24">
-        <v>9.510815183329868</v>
+        <v>3.956308449475443</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.25916718652654</v>
       </c>
       <c r="J24">
-        <v>0.4113477905578549</v>
+        <v>0.1726447479762072</v>
       </c>
       <c r="K24">
-        <v>0.9668384272862909</v>
+        <v>1.435271269439113</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4083580726002722</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.811492719181672</v>
+        <v>0.8431352052476484</v>
       </c>
       <c r="C25">
-        <v>0.6302864654753648</v>
+        <v>0.3328506153063984</v>
       </c>
       <c r="D25">
-        <v>0.03593643598796348</v>
+        <v>0.006426956772621395</v>
       </c>
       <c r="E25">
-        <v>0.06423503332444369</v>
+        <v>0.05650984576787366</v>
       </c>
       <c r="F25">
-        <v>7.892091627955296</v>
+        <v>3.502999610474859</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.024192549099666</v>
       </c>
       <c r="J25">
-        <v>0.3380872550359157</v>
+        <v>0.1530311100360962</v>
       </c>
       <c r="K25">
-        <v>0.7701534287121916</v>
+        <v>1.164501565580849</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3356081376390989</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7012404040030731</v>
+        <v>0.4835600043717818</v>
       </c>
       <c r="C2">
-        <v>0.2812571906218011</v>
+        <v>0.2318306736498812</v>
       </c>
       <c r="D2">
-        <v>0.005318067889749756</v>
+        <v>0.02719723791074635</v>
       </c>
       <c r="E2">
-        <v>0.05063525556457549</v>
+        <v>0.09970402780483312</v>
       </c>
       <c r="F2">
-        <v>3.185149749102095</v>
+        <v>3.785143198636547</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.859457500778774</v>
+        <v>2.12485044742877</v>
       </c>
       <c r="J2">
-        <v>0.1393455062713684</v>
+        <v>0.2065888780660643</v>
       </c>
       <c r="K2">
-        <v>0.9718861408518933</v>
+        <v>0.7140377030638376</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.284059888411754</v>
+        <v>0.2989512149090459</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6072609047793662</v>
+        <v>0.4641018815264033</v>
       </c>
       <c r="C3">
-        <v>0.2473488027455915</v>
+        <v>0.2245224549581053</v>
       </c>
       <c r="D3">
-        <v>0.004574489797679604</v>
+        <v>0.02765857281838535</v>
       </c>
       <c r="E3">
-        <v>0.04682377556947515</v>
+        <v>0.09945838426490994</v>
       </c>
       <c r="F3">
-        <v>2.977889889380762</v>
+        <v>3.735384344745242</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.752044847904983</v>
+        <v>2.09663095641686</v>
       </c>
       <c r="J3">
-        <v>0.1304632456868049</v>
+        <v>0.2050118552617448</v>
       </c>
       <c r="K3">
-        <v>0.8446181224792895</v>
+        <v>0.6874523524119809</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2501291641254184</v>
+        <v>0.2929052685063702</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5504434957829289</v>
+        <v>0.4525560959199879</v>
       </c>
       <c r="C4">
-        <v>0.2269648246976459</v>
+        <v>0.2201839731732065</v>
       </c>
       <c r="D4">
-        <v>0.004121616521572946</v>
+        <v>0.02797041583522741</v>
       </c>
       <c r="E4">
-        <v>0.04455820389540399</v>
+        <v>0.09935553210989845</v>
       </c>
       <c r="F4">
-        <v>2.854125383176552</v>
+        <v>3.705944817236286</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.687903570680959</v>
+        <v>2.079804044332249</v>
       </c>
       <c r="J4">
-        <v>0.1251798572733946</v>
+        <v>0.2041161890044663</v>
       </c>
       <c r="K4">
-        <v>0.7678106728541536</v>
+        <v>0.671679435236797</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2297159294520377</v>
+        <v>0.2894000296760098</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5274869827227349</v>
+        <v>0.4479520672407489</v>
       </c>
       <c r="C5">
-        <v>0.2187562218633161</v>
+        <v>0.2184533389796854</v>
       </c>
       <c r="D5">
-        <v>0.003937968175581119</v>
+        <v>0.02810470511453644</v>
       </c>
       <c r="E5">
-        <v>0.04365251767574385</v>
+        <v>0.09932569896610843</v>
       </c>
       <c r="F5">
-        <v>2.8044972891188</v>
+        <v>3.6942272420699</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.66218316201622</v>
+        <v>2.073072290808994</v>
       </c>
       <c r="J5">
-        <v>0.1230665009614569</v>
+        <v>0.2037694556779783</v>
       </c>
       <c r="K5">
-        <v>0.7368093490760259</v>
+        <v>0.6653901955911863</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2214929265529122</v>
+        <v>0.2880236786987247</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5236862512169864</v>
+        <v>0.4471936702026653</v>
       </c>
       <c r="C6">
-        <v>0.2173987880206028</v>
+        <v>0.218168220890206</v>
       </c>
       <c r="D6">
-        <v>0.003907527246237663</v>
+        <v>0.02812743995610489</v>
       </c>
       <c r="E6">
-        <v>0.04350315497079826</v>
+        <v>0.0993214752864926</v>
       </c>
       <c r="F6">
-        <v>2.79630331803456</v>
+        <v>3.692298400389745</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.657936483743313</v>
+        <v>2.071962048272454</v>
       </c>
       <c r="J6">
-        <v>0.1227178870077452</v>
+        <v>0.203712983445314</v>
       </c>
       <c r="K6">
-        <v>0.7316785754890702</v>
+        <v>0.6643542255510226</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2201329914127186</v>
+        <v>0.2877982814919413</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5501331312311493</v>
+        <v>0.4524935955528804</v>
       </c>
       <c r="C7">
-        <v>0.2268537383663158</v>
+        <v>0.2201604821864862</v>
       </c>
       <c r="D7">
-        <v>0.004119136158603709</v>
+        <v>0.02797219767958836</v>
       </c>
       <c r="E7">
-        <v>0.04454591998737634</v>
+        <v>0.09935508083619915</v>
       </c>
       <c r="F7">
-        <v>2.853452905153759</v>
+        <v>3.705785659844494</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.687555052911861</v>
+        <v>2.079712750517473</v>
       </c>
       <c r="J7">
-        <v>0.1251511992306575</v>
+        <v>0.2041114389193481</v>
       </c>
       <c r="K7">
-        <v>0.7673914178525365</v>
+        <v>0.6715940562963851</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2296046571488439</v>
+        <v>0.2893812569107119</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6686361364585878</v>
+        <v>0.4767674811762106</v>
       </c>
       <c r="C8">
-        <v>0.2694678575999205</v>
+        <v>0.2292798642118612</v>
       </c>
       <c r="D8">
-        <v>0.005060900177104699</v>
+        <v>0.02735038820386393</v>
       </c>
       <c r="E8">
-        <v>0.04930478665903237</v>
+        <v>0.09960938238667794</v>
       </c>
       <c r="F8">
-        <v>3.112916670497128</v>
+        <v>3.767755099136707</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.822022380289596</v>
+        <v>2.115016363759722</v>
       </c>
       <c r="J8">
-        <v>0.1362455655965817</v>
+        <v>0.2060300412326797</v>
       </c>
       <c r="K8">
-        <v>0.9277034452959185</v>
+        <v>0.7047567251963471</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2722669805243001</v>
+        <v>0.2968236136465308</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9093305377486445</v>
+        <v>0.5275589310404314</v>
       </c>
       <c r="C9">
-        <v>0.3570655735085211</v>
+        <v>0.2483486270578226</v>
       </c>
       <c r="D9">
-        <v>0.00693837987435586</v>
+        <v>0.02635678120954665</v>
       </c>
       <c r="E9">
-        <v>0.05929015475910049</v>
+        <v>0.1004881554124601</v>
       </c>
       <c r="F9">
-        <v>3.652969985329406</v>
+        <v>3.898136612665013</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.101925357345223</v>
+        <v>2.188234985402772</v>
       </c>
       <c r="J9">
-        <v>0.1595093059140709</v>
+        <v>0.2103693824616855</v>
       </c>
       <c r="K9">
-        <v>1.25452703124472</v>
+        <v>0.7741668372294157</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3597642976853521</v>
+        <v>0.3130613617856284</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.093197965822441</v>
+        <v>0.5668313854141047</v>
       </c>
       <c r="C10">
-        <v>0.424763483891752</v>
+        <v>0.263090193506514</v>
       </c>
       <c r="D10">
-        <v>0.00833882323399493</v>
+        <v>0.02576305880058882</v>
       </c>
       <c r="E10">
-        <v>0.06711746565718713</v>
+        <v>0.1013649840910915</v>
       </c>
       <c r="F10">
-        <v>4.07418668832787</v>
+        <v>3.999385476649138</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.320277693849775</v>
+        <v>2.24449616984802</v>
       </c>
       <c r="J10">
-        <v>0.177759191705519</v>
+        <v>0.2139107220159531</v>
       </c>
       <c r="K10">
-        <v>1.505087262687084</v>
+        <v>0.8278518844747396</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4271572920433755</v>
+        <v>0.3259962775447818</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.178861455095387</v>
+        <v>0.5851249543867709</v>
       </c>
       <c r="C11">
-        <v>0.4565080436945266</v>
+        <v>0.2699574749775593</v>
       </c>
       <c r="D11">
-        <v>0.008981075499537639</v>
+        <v>0.02552227101154614</v>
       </c>
       <c r="E11">
-        <v>0.07080806105759407</v>
+        <v>0.1018139898818369</v>
       </c>
       <c r="F11">
-        <v>4.272459505857029</v>
+        <v>4.04664429205701</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.423074106214372</v>
+        <v>2.270634803216538</v>
       </c>
       <c r="J11">
-        <v>0.1863725461670072</v>
+        <v>0.2155988326676948</v>
       </c>
       <c r="K11">
-        <v>1.622055722938626</v>
+        <v>0.852863537412702</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4586836657273921</v>
+        <v>0.3320998013685852</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.211636407247283</v>
+        <v>0.592113974435307</v>
       </c>
       <c r="C12">
-        <v>0.4686860718946377</v>
+        <v>0.2725812583605318</v>
       </c>
       <c r="D12">
-        <v>0.009225073643300163</v>
+        <v>0.02543528149722363</v>
       </c>
       <c r="E12">
-        <v>0.07222642085584496</v>
+        <v>0.1019912145990034</v>
       </c>
       <c r="F12">
-        <v>4.348622876694918</v>
+        <v>4.064713357466587</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.462564321821162</v>
+        <v>2.280611735955389</v>
       </c>
       <c r="J12">
-        <v>0.189684520003091</v>
+        <v>0.2162491875455075</v>
       </c>
       <c r="K12">
-        <v>1.666844934177448</v>
+        <v>0.8624199168862106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4707647835798312</v>
+        <v>0.3344426258997686</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.204562013115492</v>
+        <v>0.5906060215101263</v>
       </c>
       <c r="C13">
-        <v>0.4660559764974153</v>
+        <v>0.2720151420447792</v>
       </c>
       <c r="D13">
-        <v>0.009172488335945417</v>
+        <v>0.02545383016538239</v>
       </c>
       <c r="E13">
-        <v>0.07191998977018343</v>
+        <v>0.1019527262450417</v>
       </c>
       <c r="F13">
-        <v>4.332169500773091</v>
+        <v>4.060814149334021</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.454033230115115</v>
+        <v>2.278459513805501</v>
       </c>
       <c r="J13">
-        <v>0.1889688968101098</v>
+        <v>0.2161086279405922</v>
       </c>
       <c r="K13">
-        <v>1.65717559277337</v>
+        <v>0.8603579961331889</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.468156244819113</v>
+        <v>0.3339366532589807</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.181550857599689</v>
+        <v>0.5856987095643831</v>
       </c>
       <c r="C14">
-        <v>0.4575066631369964</v>
+        <v>0.2701728677950257</v>
       </c>
       <c r="D14">
-        <v>0.009001133246901105</v>
+        <v>0.02551503044909964</v>
       </c>
       <c r="E14">
-        <v>0.07092432027812023</v>
+        <v>0.1018284261209743</v>
       </c>
       <c r="F14">
-        <v>4.278703073631732</v>
+        <v>4.048127370800842</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.426311301304736</v>
+        <v>2.271454029866021</v>
       </c>
       <c r="J14">
-        <v>0.1866439828566939</v>
+        <v>0.2156521151448558</v>
       </c>
       <c r="K14">
-        <v>1.625730216557599</v>
+        <v>0.8536480418442522</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4596746164418732</v>
+        <v>0.3322919145389633</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.167501054985934</v>
+        <v>0.5827008685245119</v>
       </c>
       <c r="C15">
-        <v>0.4522910677413847</v>
+        <v>0.2690474581331443</v>
       </c>
       <c r="D15">
-        <v>0.008896277739527392</v>
+        <v>0.02555306262198798</v>
       </c>
       <c r="E15">
-        <v>0.07031722126249917</v>
+        <v>0.1017532254551696</v>
       </c>
       <c r="F15">
-        <v>4.246098130694435</v>
+        <v>4.040378923100292</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.409406240531851</v>
+        <v>2.267173242883047</v>
       </c>
       <c r="J15">
-        <v>0.1852266277294277</v>
+        <v>0.2153739343027041</v>
       </c>
       <c r="K15">
-        <v>1.606535671866652</v>
+        <v>0.8495490767083993</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4544985277432332</v>
+        <v>0.3312885739298181</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.087644098708182</v>
+        <v>0.5656444808410015</v>
       </c>
       <c r="C16">
-        <v>0.4227097021922361</v>
+        <v>0.2626446543784482</v>
       </c>
       <c r="D16">
-        <v>0.008296958697144419</v>
+        <v>0.02577938257448409</v>
       </c>
       <c r="E16">
-        <v>0.06687906783512787</v>
+        <v>0.1013366481754083</v>
       </c>
       <c r="F16">
-        <v>4.061373413380466</v>
+        <v>3.99632120332825</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.313634864254922</v>
+        <v>2.242798953209387</v>
       </c>
       <c r="J16">
-        <v>0.1772030122706951</v>
+        <v>0.2138019532107904</v>
       </c>
       <c r="K16">
-        <v>1.497508710042126</v>
+        <v>0.8262292010584815</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4251159343883657</v>
+        <v>0.3256018127380784</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.039202935073604</v>
+        <v>0.5552906785335097</v>
       </c>
       <c r="C17">
-        <v>0.404819409324773</v>
+        <v>0.2587581188409445</v>
       </c>
       <c r="D17">
-        <v>0.007930655232524231</v>
+        <v>0.02592571136280597</v>
       </c>
       <c r="E17">
-        <v>0.06480459320500032</v>
+        <v>0.1010939221876725</v>
       </c>
       <c r="F17">
-        <v>3.949840693290867</v>
+        <v>3.969601037238249</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.255814265781154</v>
+        <v>2.227986029632419</v>
       </c>
       <c r="J17">
-        <v>0.172364277464311</v>
+        <v>0.2128573586942935</v>
       </c>
       <c r="K17">
-        <v>1.431434234150288</v>
+        <v>0.8120744514125704</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.40732531065985</v>
+        <v>0.3221693587124648</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.011528121085576</v>
+        <v>0.5493757586973516</v>
       </c>
       <c r="C18">
-        <v>0.3946172924275686</v>
+        <v>0.2565378595210746</v>
       </c>
       <c r="D18">
-        <v>0.00772045215158812</v>
+        <v>0.02601263489999539</v>
       </c>
       <c r="E18">
-        <v>0.06362349831468705</v>
+        <v>0.1009590320358278</v>
       </c>
       <c r="F18">
-        <v>3.886308656949126</v>
+        <v>3.954345237214994</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.222879436376331</v>
+        <v>2.219517314212865</v>
       </c>
       <c r="J18">
-        <v>0.1696101126467653</v>
+        <v>0.2123213127318593</v>
       </c>
       <c r="K18">
-        <v>1.393706761703726</v>
+        <v>0.8039885425693285</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3971732325236843</v>
+        <v>0.3202157490653477</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.002188761903994</v>
+        <v>0.547379990945899</v>
       </c>
       <c r="C19">
-        <v>0.3911775359269427</v>
+        <v>0.255788720771335</v>
       </c>
       <c r="D19">
-        <v>0.00764936294511287</v>
+        <v>0.02604254025548158</v>
       </c>
       <c r="E19">
-        <v>0.06322561464726562</v>
+        <v>0.1009141715129473</v>
       </c>
       <c r="F19">
-        <v>3.864900477730487</v>
+        <v>3.949199263870639</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.211781711957158</v>
+        <v>2.216658748730282</v>
       </c>
       <c r="J19">
-        <v>0.1686824130245554</v>
+        <v>0.2121410633103693</v>
       </c>
       <c r="K19">
-        <v>1.380978528944723</v>
+        <v>0.8012603251422661</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3937492474255109</v>
+        <v>0.3195578363636074</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.044339885308062</v>
+        <v>0.5563886858509193</v>
       </c>
       <c r="C20">
-        <v>0.4067146211087334</v>
+        <v>0.2591702760872749</v>
       </c>
       <c r="D20">
-        <v>0.007969598344239159</v>
+        <v>0.02590984901834048</v>
       </c>
       <c r="E20">
-        <v>0.06502415877221424</v>
+        <v>0.1011192724370318</v>
       </c>
       <c r="F20">
-        <v>3.961648657275276</v>
+        <v>3.972433752201113</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.261935587498371</v>
+        <v>2.22955757974691</v>
       </c>
       <c r="J20">
-        <v>0.1728763350401081</v>
+        <v>0.2129571609455354</v>
       </c>
       <c r="K20">
-        <v>1.438438868291001</v>
+        <v>0.8135755005304475</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.409210686285931</v>
+        <v>0.3225326123559213</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.18830028518704</v>
+        <v>0.5871384326597422</v>
       </c>
       <c r="C21">
-        <v>0.460013365038094</v>
+        <v>0.2707133554069401</v>
       </c>
       <c r="D21">
-        <v>0.009051442541608168</v>
+        <v>0.02549694085482912</v>
       </c>
       <c r="E21">
-        <v>0.07121618963465437</v>
+        <v>0.101864740885361</v>
       </c>
       <c r="F21">
-        <v>4.294377045178976</v>
+        <v>4.051849080457544</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.434438060388004</v>
+        <v>2.273509568444368</v>
       </c>
       <c r="J21">
-        <v>0.1873254549571186</v>
+        <v>0.2157859025636952</v>
       </c>
       <c r="K21">
-        <v>1.634952466101339</v>
+        <v>0.8556166096258266</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4621618501538265</v>
+        <v>0.3327741577681635</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.284370224075474</v>
+        <v>0.6075944963418181</v>
       </c>
       <c r="C22">
-        <v>0.4957739295118415</v>
+        <v>0.2783932432776055</v>
       </c>
       <c r="D22">
-        <v>0.009763124563011871</v>
+        <v>0.02525150346766836</v>
       </c>
       <c r="E22">
-        <v>0.0753855002618522</v>
+        <v>0.1023938854740756</v>
       </c>
       <c r="F22">
-        <v>4.518207107266392</v>
+        <v>4.10476127891792</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.550497854791914</v>
+        <v>2.302694229392586</v>
       </c>
       <c r="J22">
-        <v>0.1970648741682837</v>
+        <v>0.2176993771942293</v>
       </c>
       <c r="K22">
-        <v>1.766311498212644</v>
+        <v>0.8835884842228836</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4976103444449294</v>
+        <v>0.33965151739676</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.232898078273962</v>
+        <v>0.5966438140932269</v>
       </c>
       <c r="C23">
-        <v>0.4765955912780839</v>
+        <v>0.2742818807032847</v>
       </c>
       <c r="D23">
-        <v>0.009382846699672598</v>
+        <v>0.02538027049108393</v>
       </c>
       <c r="E23">
-        <v>0.07314829171005144</v>
+        <v>0.1021076379159531</v>
       </c>
       <c r="F23">
-        <v>4.398117098780546</v>
+        <v>4.076428459293908</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.488227532712031</v>
+        <v>2.287075646971445</v>
       </c>
       <c r="J23">
-        <v>0.1918376944156535</v>
+        <v>0.2166721931128279</v>
       </c>
       <c r="K23">
-        <v>1.695911146368218</v>
+        <v>0.8686139677731148</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4786073843550085</v>
+        <v>0.3359641093923642</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.042016929461056</v>
+        <v>0.555892159569197</v>
       </c>
       <c r="C24">
-        <v>0.4058575380865648</v>
+        <v>0.2589838956929498</v>
       </c>
       <c r="D24">
-        <v>0.007951990953181109</v>
+        <v>0.02591701167057892</v>
       </c>
       <c r="E24">
-        <v>0.06492485736742992</v>
+        <v>0.101107797084989</v>
       </c>
       <c r="F24">
-        <v>3.956308449475443</v>
+        <v>3.971152751688351</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.25916718652654</v>
+        <v>2.228846934220329</v>
       </c>
       <c r="J24">
-        <v>0.1726447479762072</v>
+        <v>0.2129120185018323</v>
       </c>
       <c r="K24">
-        <v>1.435271269439113</v>
+        <v>0.81289671474687</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4083580726002722</v>
+        <v>0.3223683238543913</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8431352052476484</v>
+        <v>0.5134758245855267</v>
       </c>
       <c r="C25">
-        <v>0.3328506153063984</v>
+        <v>0.243062171644425</v>
       </c>
       <c r="D25">
-        <v>0.006426956772621395</v>
+        <v>0.02660154947604454</v>
       </c>
       <c r="E25">
-        <v>0.05650984576787366</v>
+        <v>0.1002097878251327</v>
       </c>
       <c r="F25">
-        <v>3.502999610474859</v>
+        <v>3.861910656092761</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.024192549099666</v>
+        <v>2.167996707210762</v>
       </c>
       <c r="J25">
-        <v>0.1530311100360962</v>
+        <v>0.2091335549173792</v>
       </c>
       <c r="K25">
-        <v>1.164501565580849</v>
+        <v>0.7549187692404189</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3356081376390989</v>
+        <v>0.3084923671636872</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4835600043717818</v>
+        <v>0.7012404040031299</v>
       </c>
       <c r="C2">
-        <v>0.2318306736498812</v>
+        <v>0.2812571906219716</v>
       </c>
       <c r="D2">
-        <v>0.02719723791074635</v>
+        <v>0.005318067889735545</v>
       </c>
       <c r="E2">
-        <v>0.09970402780483312</v>
+        <v>0.05063525556456838</v>
       </c>
       <c r="F2">
-        <v>3.785143198636547</v>
+        <v>3.185149749102123</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.12485044742877</v>
+        <v>1.859457500778788</v>
       </c>
       <c r="J2">
-        <v>0.2065888780660643</v>
+        <v>0.1393455062713116</v>
       </c>
       <c r="K2">
-        <v>0.7140377030638376</v>
+        <v>0.971886140852007</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2989512149090459</v>
+        <v>0.284059888411754</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4641018815264033</v>
+        <v>0.6072609047793662</v>
       </c>
       <c r="C3">
-        <v>0.2245224549581053</v>
+        <v>0.2473488027451651</v>
       </c>
       <c r="D3">
-        <v>0.02765857281838535</v>
+        <v>0.004574489797571246</v>
       </c>
       <c r="E3">
-        <v>0.09945838426490994</v>
+        <v>0.04682377556943607</v>
       </c>
       <c r="F3">
-        <v>3.735384344745242</v>
+        <v>2.97788988938072</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.09663095641686</v>
+        <v>1.752044847904983</v>
       </c>
       <c r="J3">
-        <v>0.2050118552617448</v>
+        <v>0.1304632456869257</v>
       </c>
       <c r="K3">
-        <v>0.6874523524119809</v>
+        <v>0.8446181224792326</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2929052685063702</v>
+        <v>0.250129164125422</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4525560959199879</v>
+        <v>0.5504434957828437</v>
       </c>
       <c r="C4">
-        <v>0.2201839731732065</v>
+        <v>0.2269648246976601</v>
       </c>
       <c r="D4">
-        <v>0.02797041583522741</v>
+        <v>0.004121616521569393</v>
       </c>
       <c r="E4">
-        <v>0.09935553210989845</v>
+        <v>0.0445582038954182</v>
       </c>
       <c r="F4">
-        <v>3.705944817236286</v>
+        <v>2.854125383176523</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.079804044332249</v>
+        <v>1.687903570680987</v>
       </c>
       <c r="J4">
-        <v>0.2041161890044663</v>
+        <v>0.1251798572733875</v>
       </c>
       <c r="K4">
-        <v>0.671679435236797</v>
+        <v>0.7678106728541536</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2894000296760098</v>
+        <v>0.2297159294520483</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4479520672407489</v>
+        <v>0.5274869827227349</v>
       </c>
       <c r="C5">
-        <v>0.2184533389796854</v>
+        <v>0.2187562218633587</v>
       </c>
       <c r="D5">
-        <v>0.02810470511453644</v>
+        <v>0.00393796817569303</v>
       </c>
       <c r="E5">
-        <v>0.09932569896610843</v>
+        <v>0.04365251767574385</v>
       </c>
       <c r="F5">
-        <v>3.6942272420699</v>
+        <v>2.804497289118785</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.073072290808994</v>
+        <v>1.662183162016234</v>
       </c>
       <c r="J5">
-        <v>0.2037694556779783</v>
+        <v>0.1230665009613645</v>
       </c>
       <c r="K5">
-        <v>0.6653901955911863</v>
+        <v>0.736809349076168</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2880236786987247</v>
+        <v>0.2214929265529051</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4471936702026653</v>
+        <v>0.523686251216958</v>
       </c>
       <c r="C6">
-        <v>0.218168220890206</v>
+        <v>0.2173987880204464</v>
       </c>
       <c r="D6">
-        <v>0.02812743995610489</v>
+        <v>0.003907527246138187</v>
       </c>
       <c r="E6">
-        <v>0.0993214752864926</v>
+        <v>0.04350315497076096</v>
       </c>
       <c r="F6">
-        <v>3.692298400389745</v>
+        <v>2.796303318034575</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.071962048272454</v>
+        <v>1.657936483743313</v>
       </c>
       <c r="J6">
-        <v>0.203712983445314</v>
+        <v>0.1227178870077452</v>
       </c>
       <c r="K6">
-        <v>0.6643542255510226</v>
+        <v>0.7316785754890702</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2877982814919413</v>
+        <v>0.2201329914127115</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4524935955528804</v>
+        <v>0.550133131231064</v>
       </c>
       <c r="C7">
-        <v>0.2201604821864862</v>
+        <v>0.2268537383665432</v>
       </c>
       <c r="D7">
-        <v>0.02797219767958836</v>
+        <v>0.004119136158463377</v>
       </c>
       <c r="E7">
-        <v>0.09935508083619915</v>
+        <v>0.04454591998736568</v>
       </c>
       <c r="F7">
-        <v>3.705785659844494</v>
+        <v>2.853452905153745</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.079712750517473</v>
+        <v>1.687555052911861</v>
       </c>
       <c r="J7">
-        <v>0.2041114389193481</v>
+        <v>0.1251511992307712</v>
       </c>
       <c r="K7">
-        <v>0.6715940562963851</v>
+        <v>0.7673914178524797</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2893812569107119</v>
+        <v>0.2296046571488368</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4767674811762106</v>
+        <v>0.6686361364585878</v>
       </c>
       <c r="C8">
-        <v>0.2292798642118612</v>
+        <v>0.2694678575999205</v>
       </c>
       <c r="D8">
-        <v>0.02735038820386393</v>
+        <v>0.005060900176999894</v>
       </c>
       <c r="E8">
-        <v>0.09960938238667794</v>
+        <v>0.04930478665909632</v>
       </c>
       <c r="F8">
-        <v>3.767755099136707</v>
+        <v>3.112916670497185</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.115016363759722</v>
+        <v>1.822022380289624</v>
       </c>
       <c r="J8">
-        <v>0.2060300412326797</v>
+        <v>0.1362455655964681</v>
       </c>
       <c r="K8">
-        <v>0.7047567251963471</v>
+        <v>0.9277034452959185</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2968236136465308</v>
+        <v>0.2722669805243143</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5275589310404314</v>
+        <v>0.9093305377485308</v>
       </c>
       <c r="C9">
-        <v>0.2483486270578226</v>
+        <v>0.3570655735085211</v>
       </c>
       <c r="D9">
-        <v>0.02635678120954665</v>
+        <v>0.006938379874465994</v>
       </c>
       <c r="E9">
-        <v>0.1004881554124601</v>
+        <v>0.05929015475907207</v>
       </c>
       <c r="F9">
-        <v>3.898136612665013</v>
+        <v>3.652969985329406</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.188234985402772</v>
+        <v>2.101925357345237</v>
       </c>
       <c r="J9">
-        <v>0.2103693824616855</v>
+        <v>0.1595093059141846</v>
       </c>
       <c r="K9">
-        <v>0.7741668372294157</v>
+        <v>1.254527031244805</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3130613617856284</v>
+        <v>0.3597642976853379</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5668313854141047</v>
+        <v>1.093197965822441</v>
       </c>
       <c r="C10">
-        <v>0.263090193506514</v>
+        <v>0.4247634838917236</v>
       </c>
       <c r="D10">
-        <v>0.02576305880058882</v>
+        <v>0.008338823233959403</v>
       </c>
       <c r="E10">
-        <v>0.1013649840910915</v>
+        <v>0.06711746565716936</v>
       </c>
       <c r="F10">
-        <v>3.999385476649138</v>
+        <v>4.07418668832787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.24449616984802</v>
+        <v>2.320277693849789</v>
       </c>
       <c r="J10">
-        <v>0.2139107220159531</v>
+        <v>0.1777591917055048</v>
       </c>
       <c r="K10">
-        <v>0.8278518844747396</v>
+        <v>1.505087262687027</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3259962775447818</v>
+        <v>0.4271572920433542</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5851249543867709</v>
+        <v>1.178861455095188</v>
       </c>
       <c r="C11">
-        <v>0.2699574749775593</v>
+        <v>0.4565080436941855</v>
       </c>
       <c r="D11">
-        <v>0.02552227101154614</v>
+        <v>0.008981075499718827</v>
       </c>
       <c r="E11">
-        <v>0.1018139898818369</v>
+        <v>0.07080806105763671</v>
       </c>
       <c r="F11">
-        <v>4.04664429205701</v>
+        <v>4.272459505857057</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.270634803216538</v>
+        <v>2.423074106214401</v>
       </c>
       <c r="J11">
-        <v>0.2155988326676948</v>
+        <v>0.1863725461670853</v>
       </c>
       <c r="K11">
-        <v>0.852863537412702</v>
+        <v>1.622055722938512</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3320998013685852</v>
+        <v>0.4586836657273778</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.592113974435307</v>
+        <v>1.211636407247624</v>
       </c>
       <c r="C12">
-        <v>0.2725812583605318</v>
+        <v>0.4686860718948935</v>
       </c>
       <c r="D12">
-        <v>0.02543528149722363</v>
+        <v>0.009225073643140291</v>
       </c>
       <c r="E12">
-        <v>0.1019912145990034</v>
+        <v>0.07222642085583431</v>
       </c>
       <c r="F12">
-        <v>4.064713357466587</v>
+        <v>4.348622876694918</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.280611735955389</v>
+        <v>2.462564321821191</v>
       </c>
       <c r="J12">
-        <v>0.2162491875455075</v>
+        <v>0.1896845200030413</v>
       </c>
       <c r="K12">
-        <v>0.8624199168862106</v>
+        <v>1.666844934177448</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3344426258997686</v>
+        <v>0.4707647835798383</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5906060215101263</v>
+        <v>1.204562013115378</v>
       </c>
       <c r="C13">
-        <v>0.2720151420447792</v>
+        <v>0.4660559764971595</v>
       </c>
       <c r="D13">
-        <v>0.02545383016538239</v>
+        <v>0.009172488335625673</v>
       </c>
       <c r="E13">
-        <v>0.1019527262450417</v>
+        <v>0.07191998977017633</v>
       </c>
       <c r="F13">
-        <v>4.060814149334021</v>
+        <v>4.332169500773063</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.278459513805501</v>
+        <v>2.45403323011513</v>
       </c>
       <c r="J13">
-        <v>0.2161086279405922</v>
+        <v>0.1889688968102234</v>
       </c>
       <c r="K13">
-        <v>0.8603579961331889</v>
+        <v>1.657175592773285</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3339366532589807</v>
+        <v>0.4681562448191059</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5856987095643831</v>
+        <v>1.181550857599944</v>
       </c>
       <c r="C14">
-        <v>0.2701728677950257</v>
+        <v>0.4575066631374511</v>
       </c>
       <c r="D14">
-        <v>0.02551503044909964</v>
+        <v>0.009001133246901105</v>
       </c>
       <c r="E14">
-        <v>0.1018284261209743</v>
+        <v>0.07092432027812023</v>
       </c>
       <c r="F14">
-        <v>4.048127370800842</v>
+        <v>4.278703073631732</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.271454029866021</v>
+        <v>2.42631130130475</v>
       </c>
       <c r="J14">
-        <v>0.2156521151448558</v>
+        <v>0.1866439828566016</v>
       </c>
       <c r="K14">
-        <v>0.8536480418442522</v>
+        <v>1.625730216557599</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3322919145389633</v>
+        <v>0.4596746164418732</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5827008685245119</v>
+        <v>1.16750105498619</v>
       </c>
       <c r="C15">
-        <v>0.2690474581331443</v>
+        <v>0.4522910677418679</v>
       </c>
       <c r="D15">
-        <v>0.02555306262198798</v>
+        <v>0.00889627773932844</v>
       </c>
       <c r="E15">
-        <v>0.1017532254551696</v>
+        <v>0.07031722126244588</v>
       </c>
       <c r="F15">
-        <v>4.040378923100292</v>
+        <v>4.246098130694406</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.267173242883047</v>
+        <v>2.409406240531851</v>
       </c>
       <c r="J15">
-        <v>0.2153739343027041</v>
+        <v>0.1852266277294845</v>
       </c>
       <c r="K15">
-        <v>0.8495490767083993</v>
+        <v>1.606535671866624</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3312885739298181</v>
+        <v>0.4544985277432403</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5656444808410015</v>
+        <v>1.087644098708097</v>
       </c>
       <c r="C16">
-        <v>0.2626446543784482</v>
+        <v>0.4227097021914403</v>
       </c>
       <c r="D16">
-        <v>0.02577938257448409</v>
+        <v>0.008296958697282975</v>
       </c>
       <c r="E16">
-        <v>0.1013366481754083</v>
+        <v>0.06687906783512787</v>
       </c>
       <c r="F16">
-        <v>3.99632120332825</v>
+        <v>4.061373413380522</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.242798953209387</v>
+        <v>2.313634864254922</v>
       </c>
       <c r="J16">
-        <v>0.2138019532107904</v>
+        <v>0.1772030122706312</v>
       </c>
       <c r="K16">
-        <v>0.8262292010584815</v>
+        <v>1.497508710042212</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3256018127380784</v>
+        <v>0.4251159343883586</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5552906785335097</v>
+        <v>1.039202935073604</v>
       </c>
       <c r="C17">
-        <v>0.2587581188409445</v>
+        <v>0.404819409324972</v>
       </c>
       <c r="D17">
-        <v>0.02592571136280597</v>
+        <v>0.007930655232481598</v>
       </c>
       <c r="E17">
-        <v>0.1010939221876725</v>
+        <v>0.06480459320501808</v>
       </c>
       <c r="F17">
-        <v>3.969601037238249</v>
+        <v>3.949840693290895</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.227986029632419</v>
+        <v>2.255814265781183</v>
       </c>
       <c r="J17">
-        <v>0.2128573586942935</v>
+        <v>0.1723642774644176</v>
       </c>
       <c r="K17">
-        <v>0.8120744514125704</v>
+        <v>1.431434234150373</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3221693587124648</v>
+        <v>0.4073253106598642</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5493757586973516</v>
+        <v>1.011528121085632</v>
       </c>
       <c r="C18">
-        <v>0.2565378595210746</v>
+        <v>0.394617292427796</v>
       </c>
       <c r="D18">
-        <v>0.02601263489999539</v>
+        <v>0.007720452151584567</v>
       </c>
       <c r="E18">
-        <v>0.1009590320358278</v>
+        <v>0.0636234983146835</v>
       </c>
       <c r="F18">
-        <v>3.954345237214994</v>
+        <v>3.886308656949126</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.219517314212865</v>
+        <v>2.222879436376331</v>
       </c>
       <c r="J18">
-        <v>0.2123213127318593</v>
+        <v>0.1696101126468363</v>
       </c>
       <c r="K18">
-        <v>0.8039885425693285</v>
+        <v>1.393706761703669</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3202157490653477</v>
+        <v>0.3971732325236914</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.547379990945899</v>
+        <v>1.00218876190408</v>
       </c>
       <c r="C19">
-        <v>0.255788720771335</v>
+        <v>0.3911775359271985</v>
       </c>
       <c r="D19">
-        <v>0.02604254025548158</v>
+        <v>0.007649362944970761</v>
       </c>
       <c r="E19">
-        <v>0.1009141715129473</v>
+        <v>0.06322561464726206</v>
       </c>
       <c r="F19">
-        <v>3.949199263870639</v>
+        <v>3.86490047773043</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.216658748730282</v>
+        <v>2.211781711957173</v>
       </c>
       <c r="J19">
-        <v>0.2121410633103693</v>
+        <v>0.1686824130244986</v>
       </c>
       <c r="K19">
-        <v>0.8012603251422661</v>
+        <v>1.380978528944723</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3195578363636074</v>
+        <v>0.3937492474255109</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5563886858509193</v>
+        <v>1.044339885308062</v>
       </c>
       <c r="C20">
-        <v>0.2591702760872749</v>
+        <v>0.4067146211086765</v>
       </c>
       <c r="D20">
-        <v>0.02590984901834048</v>
+        <v>0.007969598344548245</v>
       </c>
       <c r="E20">
-        <v>0.1011192724370318</v>
+        <v>0.06502415877226042</v>
       </c>
       <c r="F20">
-        <v>3.972433752201113</v>
+        <v>3.961648657275276</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.22955757974691</v>
+        <v>2.261935587498385</v>
       </c>
       <c r="J20">
-        <v>0.2129571609455354</v>
+        <v>0.172876335040236</v>
       </c>
       <c r="K20">
-        <v>0.8135755005304475</v>
+        <v>1.438438868291001</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3225326123559213</v>
+        <v>0.4092106862859453</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5871384326597422</v>
+        <v>1.18830028518687</v>
       </c>
       <c r="C21">
-        <v>0.2707133554069401</v>
+        <v>0.4600133650375824</v>
       </c>
       <c r="D21">
-        <v>0.02549694085482912</v>
+        <v>0.009051442541707644</v>
       </c>
       <c r="E21">
-        <v>0.101864740885361</v>
+        <v>0.07121618963467213</v>
       </c>
       <c r="F21">
-        <v>4.051849080457544</v>
+        <v>4.294377045179033</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.273509568444368</v>
+        <v>2.434438060388018</v>
       </c>
       <c r="J21">
-        <v>0.2157859025636952</v>
+        <v>0.1873254549571186</v>
       </c>
       <c r="K21">
-        <v>0.8556166096258266</v>
+        <v>1.634952466101169</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3327741577681635</v>
+        <v>0.4621618501538194</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6075944963418181</v>
+        <v>1.284370224075417</v>
       </c>
       <c r="C22">
-        <v>0.2783932432776055</v>
+        <v>0.4957739295117847</v>
       </c>
       <c r="D22">
-        <v>0.02525150346766836</v>
+        <v>0.009763124563026082</v>
       </c>
       <c r="E22">
-        <v>0.1023938854740756</v>
+        <v>0.07538550026189483</v>
       </c>
       <c r="F22">
-        <v>4.10476127891792</v>
+        <v>4.518207107266448</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.302694229392586</v>
+        <v>2.550497854791914</v>
       </c>
       <c r="J22">
-        <v>0.2176993771942293</v>
+        <v>0.1970648741683121</v>
       </c>
       <c r="K22">
-        <v>0.8835884842228836</v>
+        <v>1.766311498212559</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.33965151739676</v>
+        <v>0.4976103444449436</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5966438140932269</v>
+        <v>1.232898078273877</v>
       </c>
       <c r="C23">
-        <v>0.2742818807032847</v>
+        <v>0.4765955912777713</v>
       </c>
       <c r="D23">
-        <v>0.02538027049108393</v>
+        <v>0.009382846700134451</v>
       </c>
       <c r="E23">
-        <v>0.1021076379159531</v>
+        <v>0.07314829171005499</v>
       </c>
       <c r="F23">
-        <v>4.076428459293908</v>
+        <v>4.398117098780546</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.287075646971445</v>
+        <v>2.48822753271206</v>
       </c>
       <c r="J23">
-        <v>0.2166721931128279</v>
+        <v>0.1918376944155185</v>
       </c>
       <c r="K23">
-        <v>0.8686139677731148</v>
+        <v>1.695911146367962</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3359641093923642</v>
+        <v>0.4786073843550298</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.555892159569197</v>
+        <v>1.042016929460857</v>
       </c>
       <c r="C24">
-        <v>0.2589838956929498</v>
+        <v>0.4058575380870479</v>
       </c>
       <c r="D24">
-        <v>0.02591701167057892</v>
+        <v>0.007951990953326771</v>
       </c>
       <c r="E24">
-        <v>0.101107797084989</v>
+        <v>0.06492485736743703</v>
       </c>
       <c r="F24">
-        <v>3.971152751688351</v>
+        <v>3.9563084494755</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.228846934220329</v>
+        <v>2.259167186526568</v>
       </c>
       <c r="J24">
-        <v>0.2129120185018323</v>
+        <v>0.1726447479762143</v>
       </c>
       <c r="K24">
-        <v>0.81289671474687</v>
+        <v>1.435271269439056</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3223683238543913</v>
+        <v>0.4083580726002722</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5134758245855267</v>
+        <v>0.8431352052475347</v>
       </c>
       <c r="C25">
-        <v>0.243062171644425</v>
+        <v>0.332850615306171</v>
       </c>
       <c r="D25">
-        <v>0.02660154947604454</v>
+        <v>0.00642695677249705</v>
       </c>
       <c r="E25">
-        <v>0.1002097878251327</v>
+        <v>0.0565098457678701</v>
       </c>
       <c r="F25">
-        <v>3.861910656092761</v>
+        <v>3.502999610474888</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.167996707210762</v>
+        <v>2.024192549099666</v>
       </c>
       <c r="J25">
-        <v>0.2091335549173792</v>
+        <v>0.1530311100360819</v>
       </c>
       <c r="K25">
-        <v>0.7549187692404189</v>
+        <v>1.164501565580878</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3084923671636872</v>
+        <v>0.3356081376390918</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7012404040031299</v>
+        <v>0.8608973140508738</v>
       </c>
       <c r="C2">
-        <v>0.2812571906219716</v>
+        <v>0.3499415478902961</v>
       </c>
       <c r="D2">
-        <v>0.005318067889735545</v>
+        <v>0.03091238158611276</v>
       </c>
       <c r="E2">
-        <v>0.05063525556456838</v>
+        <v>0.1049628273677143</v>
       </c>
       <c r="F2">
-        <v>3.185149749102123</v>
+        <v>3.054562729178116</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01087648179730583</v>
       </c>
       <c r="I2">
-        <v>1.859457500778788</v>
+        <v>0.02045125908344225</v>
       </c>
       <c r="J2">
-        <v>0.1393455062713116</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0.971886140852007</v>
+        <v>1.688755468138098</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2269349564035679</v>
       </c>
       <c r="M2">
-        <v>0.284059888411754</v>
+        <v>1.20608507662422</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6072609047793662</v>
+        <v>0.7486504667323572</v>
       </c>
       <c r="C3">
-        <v>0.2473488027451651</v>
+        <v>0.3060307716629893</v>
       </c>
       <c r="D3">
-        <v>0.004574489797571246</v>
+        <v>0.02732586771122669</v>
       </c>
       <c r="E3">
-        <v>0.04682377556943607</v>
+        <v>0.09113125505513864</v>
       </c>
       <c r="F3">
-        <v>2.97788988938072</v>
+        <v>2.80120667756492</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01529259047018183</v>
       </c>
       <c r="I3">
-        <v>1.752044847904983</v>
+        <v>0.02614662653336541</v>
       </c>
       <c r="J3">
-        <v>0.1304632456869257</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.8446181224792326</v>
+        <v>1.565902125456333</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1973517794202166</v>
       </c>
       <c r="M3">
-        <v>0.250129164125422</v>
+        <v>1.049783118365298</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5504434957828437</v>
+        <v>0.6798455151203768</v>
       </c>
       <c r="C4">
-        <v>0.2269648246976601</v>
+        <v>0.2795835231805199</v>
       </c>
       <c r="D4">
-        <v>0.004121616521569393</v>
+        <v>0.0251848205560492</v>
       </c>
       <c r="E4">
-        <v>0.0445582038954182</v>
+        <v>0.0827186504347992</v>
       </c>
       <c r="F4">
-        <v>2.854125383176523</v>
+        <v>2.645031329840563</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01848356295668208</v>
       </c>
       <c r="I4">
-        <v>1.687903570680987</v>
+        <v>0.03015263726590778</v>
       </c>
       <c r="J4">
-        <v>0.1251798572733875</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.7678106728541536</v>
+        <v>1.489677042877943</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1792508505391055</v>
       </c>
       <c r="M4">
-        <v>0.2297159294520483</v>
+        <v>0.9544276805089282</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5274869827227349</v>
+        <v>0.6516218831729645</v>
       </c>
       <c r="C5">
-        <v>0.2187562218633587</v>
+        <v>0.2693704367717942</v>
       </c>
       <c r="D5">
-        <v>0.00393796817569303</v>
+        <v>0.02448375343524134</v>
       </c>
       <c r="E5">
-        <v>0.04365251767574385</v>
+        <v>0.07939585727337928</v>
       </c>
       <c r="F5">
-        <v>2.804497289118785</v>
+        <v>2.576670809330906</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01990916562659817</v>
       </c>
       <c r="I5">
-        <v>1.662183162016234</v>
+        <v>0.03201544518068422</v>
       </c>
       <c r="J5">
-        <v>0.1230665009613645</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.736809349076168</v>
+        <v>1.455111914613013</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1717972388036273</v>
       </c>
       <c r="M5">
-        <v>0.2214929265529051</v>
+        <v>0.9159856296578255</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.523686251216958</v>
+        <v>0.6466865238393495</v>
       </c>
       <c r="C6">
-        <v>0.2173987880204464</v>
+        <v>0.2682281853595043</v>
       </c>
       <c r="D6">
-        <v>0.003907527246138187</v>
+        <v>0.02456136266248876</v>
       </c>
       <c r="E6">
-        <v>0.04350315497076096</v>
+        <v>0.07895272066904013</v>
       </c>
       <c r="F6">
-        <v>2.796303318034575</v>
+        <v>2.559759516977351</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02016493698489841</v>
       </c>
       <c r="I6">
-        <v>1.657936483743313</v>
+        <v>0.03247104191516481</v>
       </c>
       <c r="J6">
-        <v>0.1227178870077452</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.7316785754890702</v>
+        <v>1.445334791716377</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1704519423095192</v>
       </c>
       <c r="M6">
-        <v>0.2201329914127115</v>
+        <v>0.9099551327010431</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.550133131231064</v>
+        <v>0.6787776603794669</v>
       </c>
       <c r="C7">
-        <v>0.2268537383665432</v>
+        <v>0.2809408237922071</v>
       </c>
       <c r="D7">
-        <v>0.004119136158463377</v>
+        <v>0.02570337623109253</v>
       </c>
       <c r="E7">
-        <v>0.04454591998736568</v>
+        <v>0.08296846068728669</v>
       </c>
       <c r="F7">
-        <v>2.853452905153745</v>
+        <v>2.628929182228688</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01853391713015828</v>
       </c>
       <c r="I7">
-        <v>1.687555052911861</v>
+        <v>0.03053656326271081</v>
       </c>
       <c r="J7">
-        <v>0.1251511992307712</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.7673914178524797</v>
+        <v>1.478196781406638</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1788529508109349</v>
       </c>
       <c r="M7">
-        <v>0.2296046571488368</v>
+        <v>0.9548499445020866</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6686361364585878</v>
+        <v>0.8212322620211978</v>
       </c>
       <c r="C8">
-        <v>0.2694678575999205</v>
+        <v>0.3366790145074106</v>
       </c>
       <c r="D8">
-        <v>0.005060900176999894</v>
+        <v>0.03036871894978788</v>
       </c>
       <c r="E8">
-        <v>0.04930478665909632</v>
+        <v>0.1005692075721143</v>
       </c>
       <c r="F8">
-        <v>3.112916670497185</v>
+        <v>2.947145984581724</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01232964378225265</v>
       </c>
       <c r="I8">
-        <v>1.822022380289624</v>
+        <v>0.02272907844255112</v>
       </c>
       <c r="J8">
-        <v>0.1362455655964681</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.9277034452959185</v>
+        <v>1.631918078542441</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2163163992923529</v>
       </c>
       <c r="M8">
-        <v>0.2722669805243143</v>
+        <v>1.15328921175211</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9093305377485308</v>
+        <v>1.103267238830455</v>
       </c>
       <c r="C9">
-        <v>0.3570655735085211</v>
+        <v>0.4478938676173811</v>
       </c>
       <c r="D9">
-        <v>0.006938379874465994</v>
+        <v>0.03908535528904622</v>
       </c>
       <c r="E9">
-        <v>0.05929015475907207</v>
+        <v>0.1353075630966742</v>
       </c>
       <c r="F9">
-        <v>3.652969985329406</v>
+        <v>3.594777919634993</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004180340522086601</v>
       </c>
       <c r="I9">
-        <v>2.101925357345237</v>
+        <v>0.01118939390475937</v>
       </c>
       <c r="J9">
-        <v>0.1595093059141846</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.254527031244805</v>
+        <v>1.947305323613463</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2910652937640066</v>
       </c>
       <c r="M9">
-        <v>0.3597642976853379</v>
+        <v>1.546635232121645</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.093197965822441</v>
+        <v>1.313802045758678</v>
       </c>
       <c r="C10">
-        <v>0.4247634838917236</v>
+        <v>0.5282717845681191</v>
       </c>
       <c r="D10">
-        <v>0.008338823233959403</v>
+        <v>0.04528547499505464</v>
       </c>
       <c r="E10">
-        <v>0.06711746565716936</v>
+        <v>0.1545434308332005</v>
       </c>
       <c r="F10">
-        <v>4.07418668832787</v>
+        <v>3.978899388208362</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001355182988895809</v>
       </c>
       <c r="I10">
-        <v>2.320277693849789</v>
+        <v>0.006005204543329867</v>
       </c>
       <c r="J10">
-        <v>0.1777591917055048</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.505087262687027</v>
+        <v>2.124331666170477</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3296644712253851</v>
       </c>
       <c r="M10">
-        <v>0.4271572920433542</v>
+        <v>1.837076131846857</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.178861455095188</v>
+        <v>1.427368109267576</v>
       </c>
       <c r="C11">
-        <v>0.4565080436941855</v>
+        <v>0.5188114216349788</v>
       </c>
       <c r="D11">
-        <v>0.008981075499718827</v>
+        <v>0.04186206336451903</v>
       </c>
       <c r="E11">
-        <v>0.07080806105763671</v>
+        <v>0.1080188019482584</v>
       </c>
       <c r="F11">
-        <v>4.272459505857057</v>
+        <v>3.433384009839159</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01995422066535113</v>
       </c>
       <c r="I11">
-        <v>2.423074106214401</v>
+        <v>0.005684046362604889</v>
       </c>
       <c r="J11">
-        <v>0.1863725461670853</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.622055722938512</v>
+        <v>1.805210107225705</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2159463823838834</v>
       </c>
       <c r="M11">
-        <v>0.4586836657273778</v>
+        <v>1.935774458127753</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.211636407247624</v>
+        <v>1.480740056060313</v>
       </c>
       <c r="C12">
-        <v>0.4686860718948935</v>
+        <v>0.4913355102625871</v>
       </c>
       <c r="D12">
-        <v>0.009225073643140291</v>
+        <v>0.03708435789596365</v>
       </c>
       <c r="E12">
-        <v>0.07222642085583431</v>
+        <v>0.07191094079167826</v>
       </c>
       <c r="F12">
-        <v>4.348622876694918</v>
+        <v>2.951617870090672</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05891900510664527</v>
       </c>
       <c r="I12">
-        <v>2.462564321821191</v>
+        <v>0.005699370612541443</v>
       </c>
       <c r="J12">
-        <v>0.1896845200030413</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.666844934177448</v>
+        <v>1.539231423420446</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1343117609788749</v>
       </c>
       <c r="M12">
-        <v>0.4707647835798383</v>
+        <v>1.955111569341085</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.204562013115378</v>
+        <v>1.489204303601042</v>
       </c>
       <c r="C13">
-        <v>0.4660559764971595</v>
+        <v>0.4509625983579895</v>
       </c>
       <c r="D13">
-        <v>0.009172488335625673</v>
+        <v>0.03182360188668554</v>
       </c>
       <c r="E13">
-        <v>0.07191998977017633</v>
+        <v>0.04240698855158698</v>
       </c>
       <c r="F13">
-        <v>4.332169500773063</v>
+        <v>2.469212613425213</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.115279675739842</v>
       </c>
       <c r="I13">
-        <v>2.45403323011513</v>
+        <v>0.006407533173406144</v>
       </c>
       <c r="J13">
-        <v>0.1889688968102234</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.657175592773285</v>
+        <v>1.282277763124398</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07261355704402206</v>
       </c>
       <c r="M13">
-        <v>0.4681562448191059</v>
+        <v>1.915751785659552</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.181550857599944</v>
+        <v>1.474609214431325</v>
       </c>
       <c r="C14">
-        <v>0.4575066631374511</v>
+        <v>0.4176560737860768</v>
       </c>
       <c r="D14">
-        <v>0.009001133246901105</v>
+        <v>0.02811027753820383</v>
       </c>
       <c r="E14">
-        <v>0.07092432027812023</v>
+        <v>0.0260124650794662</v>
       </c>
       <c r="F14">
-        <v>4.278703073631732</v>
+        <v>2.135517755246724</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1652500512325759</v>
       </c>
       <c r="I14">
-        <v>2.42631130130475</v>
+        <v>0.007372189288578745</v>
       </c>
       <c r="J14">
-        <v>0.1866439828566016</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.625730216557599</v>
+        <v>1.108554710117915</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04175016044932178</v>
       </c>
       <c r="M14">
-        <v>0.4596746164418732</v>
+        <v>1.862184594456721</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.16750105498619</v>
+        <v>1.461026469504901</v>
       </c>
       <c r="C15">
-        <v>0.4522910677418679</v>
+        <v>0.4074142031454357</v>
       </c>
       <c r="D15">
-        <v>0.00889627773932844</v>
+        <v>0.02724491236524784</v>
       </c>
       <c r="E15">
-        <v>0.07031722126244588</v>
+        <v>0.02251711863714512</v>
       </c>
       <c r="F15">
-        <v>4.246098130694406</v>
+        <v>2.046210811625585</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1780400243792428</v>
       </c>
       <c r="I15">
-        <v>2.409406240531851</v>
+        <v>0.007936311478243141</v>
       </c>
       <c r="J15">
-        <v>0.1852266277294845</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.606535671866624</v>
+        <v>1.062742342977465</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03569014341833565</v>
       </c>
       <c r="M15">
-        <v>0.4544985277432403</v>
+        <v>1.837215507558625</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.087644098708097</v>
+        <v>1.367392349975177</v>
       </c>
       <c r="C16">
-        <v>0.4227097021914403</v>
+        <v>0.3827802721219769</v>
       </c>
       <c r="D16">
-        <v>0.008296958697282975</v>
+        <v>0.02602070701252757</v>
       </c>
       <c r="E16">
-        <v>0.06687906783512787</v>
+        <v>0.02151454245792372</v>
       </c>
       <c r="F16">
-        <v>4.061373413380522</v>
+        <v>1.983950642386233</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1666604729480383</v>
       </c>
       <c r="I16">
-        <v>2.313634864254922</v>
+        <v>0.01011157089155468</v>
       </c>
       <c r="J16">
-        <v>0.1772030122706312</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.497508710042212</v>
+        <v>1.0398196826687</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03425253154117414</v>
       </c>
       <c r="M16">
-        <v>0.4251159343883586</v>
+        <v>1.72125833276715</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.039202935073604</v>
+        <v>1.303518411351746</v>
       </c>
       <c r="C17">
-        <v>0.404819409324972</v>
+        <v>0.3815218780240741</v>
       </c>
       <c r="D17">
-        <v>0.007930655232481598</v>
+        <v>0.02705720393836231</v>
       </c>
       <c r="E17">
-        <v>0.06480459320501808</v>
+        <v>0.02858710964228273</v>
       </c>
       <c r="F17">
-        <v>3.949840693290895</v>
+        <v>2.107356008987637</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1296039764548595</v>
       </c>
       <c r="I17">
-        <v>2.255814265781183</v>
+        <v>0.01132928290786062</v>
       </c>
       <c r="J17">
-        <v>0.1723642774644176</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.431434234150373</v>
+        <v>1.110803558223743</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04707095950831075</v>
       </c>
       <c r="M17">
-        <v>0.4073253106598642</v>
+        <v>1.660952579962782</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.011528121085632</v>
+        <v>1.258664817955662</v>
       </c>
       <c r="C18">
-        <v>0.394617292427796</v>
+        <v>0.3991180695185221</v>
       </c>
       <c r="D18">
-        <v>0.007720452151584567</v>
+        <v>0.0298938470007144</v>
       </c>
       <c r="E18">
-        <v>0.0636234983146835</v>
+        <v>0.04711993634930423</v>
       </c>
       <c r="F18">
-        <v>3.886308656949126</v>
+        <v>2.433375136614103</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07672077751944784</v>
       </c>
       <c r="I18">
-        <v>2.222879436376331</v>
+        <v>0.01129140656493544</v>
       </c>
       <c r="J18">
-        <v>0.1696101126468363</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.393706761703669</v>
+        <v>1.289618720725088</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08460107996500454</v>
       </c>
       <c r="M18">
-        <v>0.3971732325236914</v>
+        <v>1.640144718090966</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.00218876190408</v>
+        <v>1.231250067705702</v>
       </c>
       <c r="C19">
-        <v>0.3911775359271985</v>
+        <v>0.4338411135857143</v>
       </c>
       <c r="D19">
-        <v>0.007649362944970761</v>
+        <v>0.03511374420445179</v>
       </c>
       <c r="E19">
-        <v>0.06322561464726206</v>
+        <v>0.07978652566908906</v>
       </c>
       <c r="F19">
-        <v>3.86490047773043</v>
+        <v>2.908546880224335</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03060074490537801</v>
       </c>
       <c r="I19">
-        <v>2.211781711957173</v>
+        <v>0.0107832842019997</v>
       </c>
       <c r="J19">
-        <v>0.1686824130244986</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.380978528944723</v>
+        <v>1.546558855896407</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1557257758601907</v>
       </c>
       <c r="M19">
-        <v>0.3937492474255109</v>
+        <v>1.654135505223138</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.044339885308062</v>
+        <v>1.256139206086658</v>
       </c>
       <c r="C20">
-        <v>0.4067146211086765</v>
+        <v>0.5114336586952959</v>
       </c>
       <c r="D20">
-        <v>0.007969598344548245</v>
+        <v>0.04532025174378163</v>
       </c>
       <c r="E20">
-        <v>0.06502415877226042</v>
+        <v>0.1500910619911622</v>
       </c>
       <c r="F20">
-        <v>3.961648657275276</v>
+        <v>3.827101258543536</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001923988879386496</v>
       </c>
       <c r="I20">
-        <v>2.261935587498385</v>
+        <v>0.008100400219898773</v>
       </c>
       <c r="J20">
-        <v>0.172876335040236</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.438438868291001</v>
+        <v>2.041759992649631</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3177948902305872</v>
       </c>
       <c r="M20">
-        <v>0.4092106862859453</v>
+        <v>1.763123632081403</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.18830028518687</v>
+        <v>1.415684925709598</v>
       </c>
       <c r="C21">
-        <v>0.4600133650375824</v>
+        <v>0.5822766520640812</v>
       </c>
       <c r="D21">
-        <v>0.009051442541707644</v>
+        <v>0.05119275811922108</v>
       </c>
       <c r="E21">
-        <v>0.07121618963467213</v>
+        <v>0.17586511676339</v>
       </c>
       <c r="F21">
-        <v>4.294377045179033</v>
+        <v>4.261251739509362</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0002774176798907568</v>
       </c>
       <c r="I21">
-        <v>2.434438060388018</v>
+        <v>0.004757997804074598</v>
       </c>
       <c r="J21">
-        <v>0.1873254549571186</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.634952466101169</v>
+        <v>2.255394916885535</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3741487210257901</v>
       </c>
       <c r="M21">
-        <v>0.4621618501538194</v>
+        <v>1.993714395410308</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.284370224075417</v>
+        <v>1.522567344532888</v>
       </c>
       <c r="C22">
-        <v>0.4957739295117847</v>
+        <v>0.6246146204405818</v>
       </c>
       <c r="D22">
-        <v>0.009763124563026082</v>
+        <v>0.0539481121237273</v>
       </c>
       <c r="E22">
-        <v>0.07538550026189483</v>
+        <v>0.1888828895290331</v>
       </c>
       <c r="F22">
-        <v>4.518207107266448</v>
+        <v>4.523218651783054</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.023488932667021E-07</v>
       </c>
       <c r="I22">
-        <v>2.550497854791914</v>
+        <v>0.002973671924659804</v>
       </c>
       <c r="J22">
-        <v>0.1970648741683121</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.766311498212559</v>
+        <v>2.38583371800371</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4030632049958314</v>
       </c>
       <c r="M22">
-        <v>0.4976103444449436</v>
+        <v>2.142631082948952</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.232898078273877</v>
+        <v>1.466364670517976</v>
       </c>
       <c r="C23">
-        <v>0.4765955912777713</v>
+        <v>0.6001132540444303</v>
       </c>
       <c r="D23">
-        <v>0.009382846700134451</v>
+        <v>0.05180564506570562</v>
       </c>
       <c r="E23">
-        <v>0.07314829171005499</v>
+        <v>0.18155610755678</v>
       </c>
       <c r="F23">
-        <v>4.398117098780546</v>
+        <v>4.401503100948162</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.34074148658992E-05</v>
       </c>
       <c r="I23">
-        <v>2.48822753271206</v>
+        <v>0.003518845468267529</v>
       </c>
       <c r="J23">
-        <v>0.1918376944155185</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.695911146367962</v>
+        <v>2.329386589025887</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3879910445009784</v>
       </c>
       <c r="M23">
-        <v>0.4786073843550298</v>
+        <v>2.06193983374078</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.042016929460857</v>
+        <v>1.253251117843973</v>
       </c>
       <c r="C24">
-        <v>0.4058575380870479</v>
+        <v>0.512004611643448</v>
       </c>
       <c r="D24">
-        <v>0.007951990953326771</v>
+        <v>0.04489863474020694</v>
       </c>
       <c r="E24">
-        <v>0.06492485736743703</v>
+        <v>0.1547301826642027</v>
       </c>
       <c r="F24">
-        <v>3.9563084494755</v>
+        <v>3.913538915876018</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001701987777199321</v>
       </c>
       <c r="I24">
-        <v>2.259167186526568</v>
+        <v>0.007476140430674683</v>
       </c>
       <c r="J24">
-        <v>0.1726447479762143</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.435271269439056</v>
+        <v>2.094646042203053</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3308424578647617</v>
       </c>
       <c r="M24">
-        <v>0.4083580726002722</v>
+        <v>1.760920179358095</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8431352052475347</v>
+        <v>1.02542769011751</v>
       </c>
       <c r="C25">
-        <v>0.332850615306171</v>
+        <v>0.4199833411995257</v>
       </c>
       <c r="D25">
-        <v>0.00642695677249705</v>
+        <v>0.03765225562382568</v>
       </c>
       <c r="E25">
-        <v>0.0565098457678701</v>
+        <v>0.1263557688801029</v>
       </c>
       <c r="F25">
-        <v>3.502999610474888</v>
+        <v>3.392136743026668</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005943094145036909</v>
       </c>
       <c r="I25">
-        <v>2.024192549099666</v>
+        <v>0.0143657823564185</v>
       </c>
       <c r="J25">
-        <v>0.1530311100360819</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.164501565580878</v>
+        <v>1.842504096984896</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.270164597713233</v>
       </c>
       <c r="M25">
-        <v>0.3356081376390918</v>
+        <v>1.441119544611411</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8608973140508738</v>
+        <v>0.8329276887872652</v>
       </c>
       <c r="C2">
-        <v>0.3499415478902961</v>
+        <v>0.4414519141360813</v>
       </c>
       <c r="D2">
-        <v>0.03091238158611276</v>
+        <v>0.06646842984559953</v>
       </c>
       <c r="E2">
-        <v>0.1049628273677143</v>
+        <v>0.1245606606877772</v>
       </c>
       <c r="F2">
-        <v>3.054562729178116</v>
+        <v>2.251370649787773</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01087648179730583</v>
+        <v>0.008741470285077435</v>
       </c>
       <c r="I2">
-        <v>0.02045125908344225</v>
+        <v>0.01403304013017692</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.688755468138098</v>
+        <v>1.100704778867218</v>
       </c>
       <c r="L2">
-        <v>0.2269349564035679</v>
+        <v>0.4404420065004899</v>
       </c>
       <c r="M2">
-        <v>1.20608507662422</v>
+        <v>0.3844039146335945</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2163263200693422</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.264627048214322</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7486504667323572</v>
+        <v>0.7253389761169728</v>
       </c>
       <c r="C3">
-        <v>0.3060307716629893</v>
+        <v>0.3855120790277908</v>
       </c>
       <c r="D3">
-        <v>0.02732586771122669</v>
+        <v>0.05691470855525438</v>
       </c>
       <c r="E3">
-        <v>0.09113125505513864</v>
+        <v>0.1080394326124612</v>
       </c>
       <c r="F3">
-        <v>2.80120667756492</v>
+        <v>2.103515429976824</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01529259047018183</v>
+        <v>0.01243163553367224</v>
       </c>
       <c r="I3">
-        <v>0.02614662653336541</v>
+        <v>0.01808792291515582</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.565902125456333</v>
+        <v>1.049758106966934</v>
       </c>
       <c r="L3">
-        <v>0.1973517794202166</v>
+        <v>0.4299681113202496</v>
       </c>
       <c r="M3">
-        <v>1.049783118365298</v>
+        <v>0.3583287058818669</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1891242936629212</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.099422951195947</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6798455151203768</v>
+        <v>0.659230516986554</v>
       </c>
       <c r="C4">
-        <v>0.2795835231805199</v>
+        <v>0.351807623126831</v>
       </c>
       <c r="D4">
-        <v>0.0251848205560492</v>
+        <v>0.05118242881919599</v>
       </c>
       <c r="E4">
-        <v>0.0827186504347992</v>
+        <v>0.09797809630968146</v>
       </c>
       <c r="F4">
-        <v>2.645031329840563</v>
+        <v>2.012051321900131</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01848356295668208</v>
+        <v>0.01511236211086353</v>
       </c>
       <c r="I4">
-        <v>0.03015263726590778</v>
+        <v>0.02097153921553208</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.489677042877943</v>
+        <v>1.017770277656361</v>
       </c>
       <c r="L4">
-        <v>0.1792508505391055</v>
+        <v>0.4229132168138321</v>
       </c>
       <c r="M4">
-        <v>0.9544276805089282</v>
+        <v>0.3429645967498161</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1724406776770451</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9984859436336819</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6516218831729645</v>
+        <v>0.6321016717971872</v>
       </c>
       <c r="C5">
-        <v>0.2693704367717942</v>
+        <v>0.3386282625276635</v>
       </c>
       <c r="D5">
-        <v>0.02448375343524134</v>
+        <v>0.04907661176275013</v>
       </c>
       <c r="E5">
-        <v>0.07939585727337928</v>
+        <v>0.09397363235447642</v>
       </c>
       <c r="F5">
-        <v>2.576670809330906</v>
+        <v>1.971452724061066</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01990916562659817</v>
+        <v>0.01631209051533833</v>
       </c>
       <c r="I5">
-        <v>0.03201544518068422</v>
+        <v>0.0223554343373884</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.455111914613013</v>
+        <v>1.002463936834971</v>
       </c>
       <c r="L5">
-        <v>0.1717972388036273</v>
+        <v>0.4190161454141119</v>
       </c>
       <c r="M5">
-        <v>0.9159856296578255</v>
+        <v>0.3361658066227307</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1655719623323293</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9576956117960549</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6466865238393495</v>
+        <v>0.6273876473954658</v>
       </c>
       <c r="C6">
-        <v>0.2682281853595043</v>
+        <v>0.3369461673483158</v>
       </c>
       <c r="D6">
-        <v>0.02456136266248876</v>
+        <v>0.04897227515967728</v>
       </c>
       <c r="E6">
-        <v>0.07895272066904013</v>
+        <v>0.09340441146415657</v>
       </c>
       <c r="F6">
-        <v>2.559759516977351</v>
+        <v>1.960862711200676</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02016493698489841</v>
+        <v>0.01652624325320584</v>
       </c>
       <c r="I6">
-        <v>0.03247104191516481</v>
+        <v>0.02273877520183465</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.445334791716377</v>
+        <v>0.9973602764173606</v>
       </c>
       <c r="L6">
-        <v>0.1704519423095192</v>
+        <v>0.4173049981459656</v>
       </c>
       <c r="M6">
-        <v>0.9099551327010431</v>
+        <v>0.3341940838157598</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1643445536809409</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9512153409407915</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6787776603794669</v>
+        <v>0.658293471101473</v>
       </c>
       <c r="C7">
-        <v>0.2809408237922071</v>
+        <v>0.3529923010765117</v>
       </c>
       <c r="D7">
-        <v>0.02570337623109253</v>
+        <v>0.05182276326996771</v>
       </c>
       <c r="E7">
-        <v>0.08296846068728669</v>
+        <v>0.09818344901585618</v>
       </c>
       <c r="F7">
-        <v>2.628929182228688</v>
+        <v>2.001039650125676</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01853391713015828</v>
+        <v>0.01515130894028688</v>
       </c>
       <c r="I7">
-        <v>0.03053656326271081</v>
+        <v>0.02137173915488777</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.478196781406638</v>
+        <v>1.010615020694331</v>
       </c>
       <c r="L7">
-        <v>0.1788529508109349</v>
+        <v>0.420024099645623</v>
       </c>
       <c r="M7">
-        <v>0.9548499445020866</v>
+        <v>0.340513970965624</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1721098895885333</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9987179779630253</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8212322620211978</v>
+        <v>0.7950662577028709</v>
       </c>
       <c r="C8">
-        <v>0.3366790145074106</v>
+        <v>0.423845005486811</v>
       </c>
       <c r="D8">
-        <v>0.03036871894978788</v>
+        <v>0.06405065803726018</v>
       </c>
       <c r="E8">
-        <v>0.1005692075721143</v>
+        <v>0.1191926230950813</v>
       </c>
       <c r="F8">
-        <v>2.947145984581724</v>
+        <v>2.186754177739743</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01232964378225265</v>
+        <v>0.009948894401829077</v>
       </c>
       <c r="I8">
-        <v>0.02272907844255112</v>
+        <v>0.01580077191173057</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.631918078542441</v>
+        <v>1.074182614453527</v>
       </c>
       <c r="L8">
-        <v>0.2163163992923529</v>
+        <v>0.43339065904987</v>
       </c>
       <c r="M8">
-        <v>1.15328921175211</v>
+        <v>0.3720398026414458</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2066211128253457</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.208580872242067</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.103267238830455</v>
+        <v>1.064293759890006</v>
       </c>
       <c r="C9">
-        <v>0.4478938676173811</v>
+        <v>0.5660048975430811</v>
       </c>
       <c r="D9">
-        <v>0.03908535528904622</v>
+        <v>0.08793938457253603</v>
       </c>
       <c r="E9">
-        <v>0.1353075630966742</v>
+        <v>0.1606959039306304</v>
       </c>
       <c r="F9">
-        <v>3.594777919634993</v>
+        <v>2.564866739047375</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.004180340522086601</v>
+        <v>0.003220255631436908</v>
       </c>
       <c r="I9">
-        <v>0.01118939390475937</v>
+        <v>0.00762479531268756</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.947305323613463</v>
+        <v>1.20568614992451</v>
       </c>
       <c r="L9">
-        <v>0.2910652937640066</v>
+        <v>0.4594253596294564</v>
       </c>
       <c r="M9">
-        <v>1.546635232121645</v>
+        <v>0.4435687695889996</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.275057742153507</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.623545561841098</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.313802045758678</v>
+        <v>1.265093832648319</v>
       </c>
       <c r="C10">
-        <v>0.5282717845681191</v>
+        <v>0.6672410348402025</v>
       </c>
       <c r="D10">
-        <v>0.04528547499505464</v>
+        <v>0.1044942635453623</v>
       </c>
       <c r="E10">
-        <v>0.1545434308332005</v>
+        <v>0.1839085682382446</v>
       </c>
       <c r="F10">
-        <v>3.978899388208362</v>
+        <v>2.781134961376537</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.001355182988895809</v>
+        <v>0.00100367400647805</v>
       </c>
       <c r="I10">
-        <v>0.006005204543329867</v>
+        <v>0.004183133472609235</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.124331666170477</v>
+        <v>1.270895937910481</v>
       </c>
       <c r="L10">
-        <v>0.3296644712253851</v>
+        <v>0.4654564213698293</v>
       </c>
       <c r="M10">
-        <v>1.837076131846857</v>
+        <v>0.4884284156643588</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3096203025290549</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.927815483845819</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.427368109267576</v>
+        <v>1.380562645292542</v>
       </c>
       <c r="C11">
-        <v>0.5188114216349788</v>
+        <v>0.6452834472934512</v>
       </c>
       <c r="D11">
-        <v>0.04186206336451903</v>
+        <v>0.09492923780020135</v>
       </c>
       <c r="E11">
-        <v>0.1080188019482584</v>
+        <v>0.1310550269463349</v>
       </c>
       <c r="F11">
-        <v>3.433384009839159</v>
+        <v>2.407738305521676</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01995422066535113</v>
+        <v>0.01958937157455054</v>
       </c>
       <c r="I11">
-        <v>0.005684046362604889</v>
+        <v>0.004219398623606097</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.805210107225705</v>
+        <v>1.083427621364997</v>
       </c>
       <c r="L11">
-        <v>0.2159463823838834</v>
+        <v>0.3917752457644568</v>
       </c>
       <c r="M11">
-        <v>1.935774458127753</v>
+        <v>0.4230694706541342</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2014693770190306</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.022538697330248</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.480740056060313</v>
+        <v>1.437738019920857</v>
       </c>
       <c r="C12">
-        <v>0.4913355102625871</v>
+        <v>0.6034035496126364</v>
       </c>
       <c r="D12">
-        <v>0.03708435789596365</v>
+        <v>0.08284914262569743</v>
       </c>
       <c r="E12">
-        <v>0.07191094079167826</v>
+        <v>0.08942957421725595</v>
       </c>
       <c r="F12">
-        <v>2.951617870090672</v>
+        <v>2.085628980481715</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05891900510664527</v>
+        <v>0.05847628814323969</v>
       </c>
       <c r="I12">
-        <v>0.005699370612541443</v>
+        <v>0.004194405627107933</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.539231423420446</v>
+        <v>0.9347926880710631</v>
       </c>
       <c r="L12">
-        <v>0.1343117609788749</v>
+        <v>0.3376682505803785</v>
       </c>
       <c r="M12">
-        <v>1.955111569341085</v>
+        <v>0.3663971843017322</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1246219908907307</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.035689404348631</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.489204303601042</v>
+        <v>1.451861001527988</v>
       </c>
       <c r="C13">
-        <v>0.4509625983579895</v>
+        <v>0.5462608562076525</v>
       </c>
       <c r="D13">
-        <v>0.03182360188668554</v>
+        <v>0.06938089539302439</v>
       </c>
       <c r="E13">
-        <v>0.04240698855158698</v>
+        <v>0.05474575426699957</v>
       </c>
       <c r="F13">
-        <v>2.469212613425213</v>
+        <v>1.768391376909321</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.115279675739842</v>
+        <v>0.1146805981998256</v>
       </c>
       <c r="I13">
-        <v>0.006407533173406144</v>
+        <v>0.004605732001571106</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.282277763124398</v>
+        <v>0.7964301750671865</v>
       </c>
       <c r="L13">
-        <v>0.07261355704402206</v>
+        <v>0.2903991549159457</v>
       </c>
       <c r="M13">
-        <v>1.915751785659552</v>
+        <v>0.3098398665115738</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06734322277165816</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.987880956899744</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.474609214431325</v>
+        <v>1.442062872895747</v>
       </c>
       <c r="C14">
-        <v>0.4176560737860768</v>
+        <v>0.5003131912588401</v>
       </c>
       <c r="D14">
-        <v>0.02811027753820383</v>
+        <v>0.05970991792288061</v>
       </c>
       <c r="E14">
-        <v>0.0260124650794662</v>
+        <v>0.03501944346997909</v>
       </c>
       <c r="F14">
-        <v>2.135517755246724</v>
+        <v>1.550561968610069</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1652500512325759</v>
+        <v>0.1644949634745387</v>
       </c>
       <c r="I14">
-        <v>0.007372189288578745</v>
+        <v>0.005242051074390908</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.108554710117915</v>
+        <v>0.7047450415534371</v>
       </c>
       <c r="L14">
-        <v>0.04175016044932178</v>
+        <v>0.2601217797247948</v>
       </c>
       <c r="M14">
-        <v>1.862184594456721</v>
+        <v>0.2709995234037095</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03924389582067889</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.927328442795528</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.461026469504901</v>
+        <v>1.430035618201941</v>
       </c>
       <c r="C15">
-        <v>0.4074142031454357</v>
+        <v>0.4864235302702298</v>
       </c>
       <c r="D15">
-        <v>0.02724491236524784</v>
+        <v>0.05722141721152241</v>
       </c>
       <c r="E15">
-        <v>0.02251711863714512</v>
+        <v>0.03071959826668902</v>
       </c>
       <c r="F15">
-        <v>2.046210811625585</v>
+        <v>1.493186157246612</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1780400243792428</v>
+        <v>0.177218359034768</v>
       </c>
       <c r="I15">
-        <v>0.007936311478243141</v>
+        <v>0.00567628267867093</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.062742342977465</v>
+        <v>0.6813146176677947</v>
       </c>
       <c r="L15">
-        <v>0.03569014341833565</v>
+        <v>0.2527479033507056</v>
       </c>
       <c r="M15">
-        <v>1.837215507558625</v>
+        <v>0.2605733781739801</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03384776158645408</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.900143245534053</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.367392349975177</v>
+        <v>1.339369408397488</v>
       </c>
       <c r="C16">
-        <v>0.3827802721219769</v>
+        <v>0.4566511501559489</v>
       </c>
       <c r="D16">
-        <v>0.02602070701252757</v>
+        <v>0.05373474894806662</v>
       </c>
       <c r="E16">
-        <v>0.02151454245792372</v>
+        <v>0.02934324492637153</v>
       </c>
       <c r="F16">
-        <v>1.983950642386233</v>
+        <v>1.463631347874738</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1666604729480383</v>
+        <v>0.1655510458855076</v>
       </c>
       <c r="I16">
-        <v>0.01011157089155468</v>
+        <v>0.007191452390082453</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>1.0398196826687</v>
+        <v>0.6785155167221788</v>
       </c>
       <c r="L16">
-        <v>0.03425253154117414</v>
+        <v>0.2555626108415758</v>
       </c>
       <c r="M16">
-        <v>1.72125833276715</v>
+        <v>0.2544061445199546</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03276704685539755</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.780052800107853</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.303518411351746</v>
+        <v>1.275226742273077</v>
       </c>
       <c r="C17">
-        <v>0.3815218780240741</v>
+        <v>0.4580309710003689</v>
       </c>
       <c r="D17">
-        <v>0.02705720393836231</v>
+        <v>0.05607781903110975</v>
       </c>
       <c r="E17">
-        <v>0.02858710964228273</v>
+        <v>0.03777427587913884</v>
       </c>
       <c r="F17">
-        <v>2.107356008987637</v>
+        <v>1.553650003910334</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1296039764548595</v>
+        <v>0.128358755680523</v>
       </c>
       <c r="I17">
-        <v>0.01132928290786062</v>
+        <v>0.00807395871942429</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.110803558223743</v>
+        <v>0.7236805525730432</v>
       </c>
       <c r="L17">
-        <v>0.04707095950831075</v>
+        <v>0.2739769835788337</v>
       </c>
       <c r="M17">
-        <v>1.660952579962782</v>
+        <v>0.2691877856791152</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04455577398275778</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.720263406465961</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.258664817955662</v>
+        <v>1.227359195807111</v>
       </c>
       <c r="C18">
-        <v>0.3991180695185221</v>
+        <v>0.4856122679494774</v>
       </c>
       <c r="D18">
-        <v>0.0298938470007144</v>
+        <v>0.06356548012443852</v>
       </c>
       <c r="E18">
-        <v>0.04711993634930423</v>
+        <v>0.05965293846335129</v>
       </c>
       <c r="F18">
-        <v>2.433375136614103</v>
+        <v>1.775721547229878</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07672077751944784</v>
+        <v>0.07551009979879098</v>
       </c>
       <c r="I18">
-        <v>0.01129140656493544</v>
+        <v>0.007963780466083925</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.289618720725088</v>
+        <v>0.8261973573527612</v>
       </c>
       <c r="L18">
-        <v>0.08460107996500454</v>
+        <v>0.3123549263368943</v>
       </c>
       <c r="M18">
-        <v>1.640144718090966</v>
+        <v>0.3072666650761846</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07941034386026047</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.704163743376029</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.231250067705702</v>
+        <v>1.195323907339713</v>
       </c>
       <c r="C19">
-        <v>0.4338411135857143</v>
+        <v>0.5357931184507549</v>
       </c>
       <c r="D19">
-        <v>0.03511374420445179</v>
+        <v>0.07642708497805728</v>
       </c>
       <c r="E19">
-        <v>0.07978652566908906</v>
+        <v>0.09754269700961871</v>
       </c>
       <c r="F19">
-        <v>2.908546880224335</v>
+        <v>2.092785032531467</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03060074490537801</v>
+        <v>0.02958291058611451</v>
       </c>
       <c r="I19">
-        <v>0.0107832842019997</v>
+        <v>0.00772426138234561</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.546558855896407</v>
+        <v>0.9685018981172817</v>
       </c>
       <c r="L19">
-        <v>0.1557257758601907</v>
+        <v>0.3644526131718422</v>
       </c>
       <c r="M19">
-        <v>1.654135505223138</v>
+        <v>0.3616480916406033</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1462159175263054</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.725559800524792</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.256139206086658</v>
+        <v>1.210526125308178</v>
       </c>
       <c r="C20">
-        <v>0.5114336586952959</v>
+        <v>0.6443932334668432</v>
       </c>
       <c r="D20">
-        <v>0.04532025174378163</v>
+        <v>0.1022426639868854</v>
       </c>
       <c r="E20">
-        <v>0.1500910619911622</v>
+        <v>0.1782661389549318</v>
       </c>
       <c r="F20">
-        <v>3.827101258543536</v>
+        <v>2.69036115703959</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001923988879386496</v>
+        <v>0.00142911884143393</v>
       </c>
       <c r="I20">
-        <v>0.008100400219898773</v>
+        <v>0.005994247448120049</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.041759992649631</v>
+        <v>1.232169146686005</v>
       </c>
       <c r="L20">
-        <v>0.3177948902305872</v>
+        <v>0.4561766827136751</v>
       </c>
       <c r="M20">
-        <v>1.763123632081403</v>
+        <v>0.4679790790931762</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.299079276846598</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.849785981620897</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.415684925709598</v>
+        <v>1.361026355322792</v>
       </c>
       <c r="C21">
-        <v>0.5822766520640812</v>
+        <v>0.7355432614883739</v>
       </c>
       <c r="D21">
-        <v>0.05119275811922108</v>
+        <v>0.1181483568416724</v>
       </c>
       <c r="E21">
-        <v>0.17586511676339</v>
+        <v>0.2086271254625132</v>
       </c>
       <c r="F21">
-        <v>4.261251739509362</v>
+        <v>2.947584509660146</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0002774176798907568</v>
+        <v>0.0001527840829576022</v>
       </c>
       <c r="I21">
-        <v>0.004757997804074598</v>
+        <v>0.003792636104352098</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.255394916885535</v>
+        <v>1.324661312891649</v>
       </c>
       <c r="L21">
-        <v>0.3741487210257901</v>
+        <v>0.4756449399824447</v>
       </c>
       <c r="M21">
-        <v>1.993714395410308</v>
+        <v>0.5202611583635601</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3507891618659471</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.092481801831923</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.522567344532888</v>
+        <v>1.461885003578118</v>
       </c>
       <c r="C22">
-        <v>0.6246146204405818</v>
+        <v>0.7901673892318115</v>
       </c>
       <c r="D22">
-        <v>0.0539481121237273</v>
+        <v>0.126668943968113</v>
       </c>
       <c r="E22">
-        <v>0.1888828895290331</v>
+        <v>0.2241909808706879</v>
       </c>
       <c r="F22">
-        <v>4.523218651783054</v>
+        <v>3.101235696664219</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.023488932667021E-07</v>
+        <v>4.787371324699308E-06</v>
       </c>
       <c r="I22">
-        <v>0.002973671924659804</v>
+        <v>0.002505723128640724</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.38583371800371</v>
+        <v>1.380551979534914</v>
       </c>
       <c r="L22">
-        <v>0.4030632049958314</v>
+        <v>0.4862259776418298</v>
       </c>
       <c r="M22">
-        <v>2.142631082948952</v>
+        <v>0.5536797965899893</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3769309098116764</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.24869118524299</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.466364670517976</v>
+        <v>1.408753561492802</v>
       </c>
       <c r="C23">
-        <v>0.6001132540444303</v>
+        <v>0.7592340121175596</v>
       </c>
       <c r="D23">
-        <v>0.05180564506570562</v>
+        <v>0.1212384166114333</v>
       </c>
       <c r="E23">
-        <v>0.18155610755678</v>
+        <v>0.2155473938423853</v>
       </c>
       <c r="F23">
-        <v>4.401503100948162</v>
+        <v>3.031261887990638</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8.34074148658992E-05</v>
+        <v>2.979785503587351E-05</v>
       </c>
       <c r="I23">
-        <v>0.003518845468267529</v>
+        <v>0.002747723069338903</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.329386589025887</v>
+        <v>1.358596000347632</v>
       </c>
       <c r="L23">
-        <v>0.3879910445009784</v>
+        <v>0.4833612939204528</v>
       </c>
       <c r="M23">
-        <v>2.06193983374078</v>
+        <v>0.5389133291727433</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3632608715116135</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.164302910069239</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.253251117843973</v>
+        <v>1.206980093807687</v>
       </c>
       <c r="C24">
-        <v>0.512004611643448</v>
+        <v>0.646877916974006</v>
       </c>
       <c r="D24">
-        <v>0.04489863474020694</v>
+        <v>0.10239641419777</v>
       </c>
       <c r="E24">
-        <v>0.1547301826642027</v>
+        <v>0.1836665647884814</v>
       </c>
       <c r="F24">
-        <v>3.913538915876018</v>
+        <v>2.747856152945943</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001701987777199321</v>
+        <v>0.001231068102125477</v>
       </c>
       <c r="I24">
-        <v>0.007476140430674683</v>
+        <v>0.005308492597463577</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.094646042203053</v>
+        <v>1.262489075932734</v>
       </c>
       <c r="L24">
-        <v>0.3308424578647617</v>
+        <v>0.4673101699127571</v>
       </c>
       <c r="M24">
-        <v>1.760920179358095</v>
+        <v>0.4795327173620905</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3113767758520254</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.848541169492933</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02542769011751</v>
+        <v>0.9903314452022585</v>
       </c>
       <c r="C25">
-        <v>0.4199833411995257</v>
+        <v>0.5293746471630811</v>
       </c>
       <c r="D25">
-        <v>0.03765225562382568</v>
+        <v>0.08261841247526291</v>
       </c>
       <c r="E25">
-        <v>0.1263557688801029</v>
+        <v>0.14984884067065</v>
       </c>
       <c r="F25">
-        <v>3.392136743026668</v>
+        <v>2.444310905793117</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.005943094145036909</v>
+        <v>0.004655582550471382</v>
       </c>
       <c r="I25">
-        <v>0.0143657823564185</v>
+        <v>0.01006466337461731</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.842504096984896</v>
+        <v>1.15842022377084</v>
       </c>
       <c r="L25">
-        <v>0.270164597713233</v>
+        <v>0.4483341098881013</v>
       </c>
       <c r="M25">
-        <v>1.441119544611411</v>
+        <v>0.4190382096129284</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2560368078970328</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.512040138301558</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
